--- a/Dice_test.xlsx
+++ b/Dice_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chmullens/Documents/DnD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chmullens/Documents/GitHub/Dice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B242C6-38C0-9448-9435-105AE9EF494E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D09874-4181-A144-97D9-911152B248FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{D71FB28A-5275-6641-8EEB-6B08F00334B6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{D71FB28A-5275-6641-8EEB-6B08F00334B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Actually_test_d20s" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,7 @@
     <t>Blue:</t>
   </si>
   <si>
-    <t>(Rolling on the flat desk, pick up and reroll with minimal shaking most of the time)</t>
+    <t>(Rolling on the flat wood desk, pick up and reroll after some shaking, avoid bumping into things near end of roll)</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0194933F-D8D3-DD40-9924-A4C1D50508BE}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1557" sqref="A1557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8562,6 +8566,4446 @@
         <v>10.5</v>
       </c>
     </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>19</v>
+      </c>
+      <c r="B1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>12</v>
+      </c>
+      <c r="B1003">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>20</v>
+      </c>
+      <c r="B1004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>9</v>
+      </c>
+      <c r="B1005">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>10</v>
+      </c>
+      <c r="B1006">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>4</v>
+      </c>
+      <c r="B1007">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>13</v>
+      </c>
+      <c r="B1008">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>16</v>
+      </c>
+      <c r="B1009">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>19</v>
+      </c>
+      <c r="B1010">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>14</v>
+      </c>
+      <c r="B1011">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>13</v>
+      </c>
+      <c r="B1012">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>19</v>
+      </c>
+      <c r="B1013">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>11</v>
+      </c>
+      <c r="B1014">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>11</v>
+      </c>
+      <c r="B1015">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>9</v>
+      </c>
+      <c r="B1016">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>4</v>
+      </c>
+      <c r="B1017">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>10</v>
+      </c>
+      <c r="B1018">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>1</v>
+      </c>
+      <c r="B1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>11</v>
+      </c>
+      <c r="B1020">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>9</v>
+      </c>
+      <c r="B1021">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>15</v>
+      </c>
+      <c r="B1022">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>19</v>
+      </c>
+      <c r="B1023">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>5</v>
+      </c>
+      <c r="B1024">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>4</v>
+      </c>
+      <c r="B1025">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>13</v>
+      </c>
+      <c r="B1026">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>9</v>
+      </c>
+      <c r="B1027">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>4</v>
+      </c>
+      <c r="B1028">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>15</v>
+      </c>
+      <c r="B1029">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>16</v>
+      </c>
+      <c r="B1030">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>15</v>
+      </c>
+      <c r="B1031">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>13</v>
+      </c>
+      <c r="B1032">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>16</v>
+      </c>
+      <c r="B1033">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>4</v>
+      </c>
+      <c r="B1034">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>1</v>
+      </c>
+      <c r="B1035">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>1</v>
+      </c>
+      <c r="B1036">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>9</v>
+      </c>
+      <c r="B1037">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>2</v>
+      </c>
+      <c r="B1038">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>8</v>
+      </c>
+      <c r="B1039">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>14</v>
+      </c>
+      <c r="B1040">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>10</v>
+      </c>
+      <c r="B1041">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>3</v>
+      </c>
+      <c r="B1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>1</v>
+      </c>
+      <c r="B1043">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>4</v>
+      </c>
+      <c r="B1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>18</v>
+      </c>
+      <c r="B1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>16</v>
+      </c>
+      <c r="B1046">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>8</v>
+      </c>
+      <c r="B1047">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>13</v>
+      </c>
+      <c r="B1048">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>17</v>
+      </c>
+      <c r="B1049">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>10</v>
+      </c>
+      <c r="B1050">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>20</v>
+      </c>
+      <c r="B1051">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>7</v>
+      </c>
+      <c r="B1052">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>14</v>
+      </c>
+      <c r="B1053">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>9</v>
+      </c>
+      <c r="B1054">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>16</v>
+      </c>
+      <c r="B1055">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>11</v>
+      </c>
+      <c r="B1056">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>16</v>
+      </c>
+      <c r="B1057">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>13</v>
+      </c>
+      <c r="B1058">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>20</v>
+      </c>
+      <c r="B1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>19</v>
+      </c>
+      <c r="B1060">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>8</v>
+      </c>
+      <c r="B1061">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>16</v>
+      </c>
+      <c r="B1062">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>18</v>
+      </c>
+      <c r="B1063">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>10</v>
+      </c>
+      <c r="B1064">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>5</v>
+      </c>
+      <c r="B1065">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>10</v>
+      </c>
+      <c r="B1066">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>1</v>
+      </c>
+      <c r="B1067">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>16</v>
+      </c>
+      <c r="B1068">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>16</v>
+      </c>
+      <c r="B1069">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>7</v>
+      </c>
+      <c r="B1070">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>5</v>
+      </c>
+      <c r="B1071">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>3</v>
+      </c>
+      <c r="B1072">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>6</v>
+      </c>
+      <c r="B1073">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>9</v>
+      </c>
+      <c r="B1074">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>4</v>
+      </c>
+      <c r="B1075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>7</v>
+      </c>
+      <c r="B1076">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>7</v>
+      </c>
+      <c r="B1077">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>4</v>
+      </c>
+      <c r="B1078">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>1</v>
+      </c>
+      <c r="B1079">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>10</v>
+      </c>
+      <c r="B1080">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>11</v>
+      </c>
+      <c r="B1081">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>18</v>
+      </c>
+      <c r="B1082">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>7</v>
+      </c>
+      <c r="B1083">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>19</v>
+      </c>
+      <c r="B1084">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>18</v>
+      </c>
+      <c r="B1085">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>17</v>
+      </c>
+      <c r="B1086">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>4</v>
+      </c>
+      <c r="B1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>9</v>
+      </c>
+      <c r="B1088">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>19</v>
+      </c>
+      <c r="B1089">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>7</v>
+      </c>
+      <c r="B1090">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>20</v>
+      </c>
+      <c r="B1091">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>18</v>
+      </c>
+      <c r="B1092">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>5</v>
+      </c>
+      <c r="B1093">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>7</v>
+      </c>
+      <c r="B1094">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>2</v>
+      </c>
+      <c r="B1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>3</v>
+      </c>
+      <c r="B1096">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>4</v>
+      </c>
+      <c r="B1097">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>7</v>
+      </c>
+      <c r="B1098">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>16</v>
+      </c>
+      <c r="B1099">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>11</v>
+      </c>
+      <c r="B1100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>4</v>
+      </c>
+      <c r="B1101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>6</v>
+      </c>
+      <c r="B1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>13</v>
+      </c>
+      <c r="B1103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>12</v>
+      </c>
+      <c r="B1104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>1</v>
+      </c>
+      <c r="B1105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>7</v>
+      </c>
+      <c r="B1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>11</v>
+      </c>
+      <c r="B1107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>6</v>
+      </c>
+      <c r="B1108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>1</v>
+      </c>
+      <c r="B1109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>1</v>
+      </c>
+      <c r="B1110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>18</v>
+      </c>
+      <c r="B1111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>2</v>
+      </c>
+      <c r="B1112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>7</v>
+      </c>
+      <c r="B1113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>16</v>
+      </c>
+      <c r="B1114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>13</v>
+      </c>
+      <c r="B1115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>14</v>
+      </c>
+      <c r="B1116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>7</v>
+      </c>
+      <c r="B1117">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>19</v>
+      </c>
+      <c r="B1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>9</v>
+      </c>
+      <c r="B1119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>16</v>
+      </c>
+      <c r="B1120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>6</v>
+      </c>
+      <c r="B1121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>9</v>
+      </c>
+      <c r="B1122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>9</v>
+      </c>
+      <c r="B1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>10</v>
+      </c>
+      <c r="B1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>19</v>
+      </c>
+      <c r="B1125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>3</v>
+      </c>
+      <c r="B1126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>13</v>
+      </c>
+      <c r="B1127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>8</v>
+      </c>
+      <c r="B1128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>14</v>
+      </c>
+      <c r="B1129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>18</v>
+      </c>
+      <c r="B1130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>5</v>
+      </c>
+      <c r="B1131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>7</v>
+      </c>
+      <c r="B1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>20</v>
+      </c>
+      <c r="B1133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>5</v>
+      </c>
+      <c r="B1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>16</v>
+      </c>
+      <c r="B1135">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>14</v>
+      </c>
+      <c r="B1136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>19</v>
+      </c>
+      <c r="B1137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>3</v>
+      </c>
+      <c r="B1138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>3</v>
+      </c>
+      <c r="B1139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>8</v>
+      </c>
+      <c r="B1140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>9</v>
+      </c>
+      <c r="B1141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>18</v>
+      </c>
+      <c r="B1142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>5</v>
+      </c>
+      <c r="B1143">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>9</v>
+      </c>
+      <c r="B1144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>15</v>
+      </c>
+      <c r="B1145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>4</v>
+      </c>
+      <c r="B1146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>18</v>
+      </c>
+      <c r="B1147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>12</v>
+      </c>
+      <c r="B1148">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>11</v>
+      </c>
+      <c r="B1149">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>5</v>
+      </c>
+      <c r="B1150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>10</v>
+      </c>
+      <c r="B1151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>5</v>
+      </c>
+      <c r="B1152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>1</v>
+      </c>
+      <c r="B1153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>3</v>
+      </c>
+      <c r="B1154">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>12</v>
+      </c>
+      <c r="B1155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>4</v>
+      </c>
+      <c r="B1156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>7</v>
+      </c>
+      <c r="B1157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>13</v>
+      </c>
+      <c r="B1158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>7</v>
+      </c>
+      <c r="B1159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>14</v>
+      </c>
+      <c r="B1160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>19</v>
+      </c>
+      <c r="B1161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>12</v>
+      </c>
+      <c r="B1162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>2</v>
+      </c>
+      <c r="B1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>6</v>
+      </c>
+      <c r="B1164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>14</v>
+      </c>
+      <c r="B1165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>3</v>
+      </c>
+      <c r="B1166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>9</v>
+      </c>
+      <c r="B1167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>20</v>
+      </c>
+      <c r="B1168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>7</v>
+      </c>
+      <c r="B1169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>19</v>
+      </c>
+      <c r="B1170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>13</v>
+      </c>
+      <c r="B1171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>10</v>
+      </c>
+      <c r="B1172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>4</v>
+      </c>
+      <c r="B1173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>12</v>
+      </c>
+      <c r="B1174">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>12</v>
+      </c>
+      <c r="B1175">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>8</v>
+      </c>
+      <c r="B1176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>19</v>
+      </c>
+      <c r="B1177">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>5</v>
+      </c>
+      <c r="B1178">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>3</v>
+      </c>
+      <c r="B1179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>2</v>
+      </c>
+      <c r="B1180">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>18</v>
+      </c>
+      <c r="B1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>5</v>
+      </c>
+      <c r="B1182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>16</v>
+      </c>
+      <c r="B1183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>20</v>
+      </c>
+      <c r="B1184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>5</v>
+      </c>
+      <c r="B1185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>14</v>
+      </c>
+      <c r="B1186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>7</v>
+      </c>
+      <c r="B1187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>19</v>
+      </c>
+      <c r="B1188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>3</v>
+      </c>
+      <c r="B1189">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>20</v>
+      </c>
+      <c r="B1190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>18</v>
+      </c>
+      <c r="B1191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>9</v>
+      </c>
+      <c r="B1192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>19</v>
+      </c>
+      <c r="B1193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>16</v>
+      </c>
+      <c r="B1194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>2</v>
+      </c>
+      <c r="B1195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>7</v>
+      </c>
+      <c r="B1196">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>11</v>
+      </c>
+      <c r="B1197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>19</v>
+      </c>
+      <c r="B1198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>8</v>
+      </c>
+      <c r="B1199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>2</v>
+      </c>
+      <c r="B1200">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>2</v>
+      </c>
+      <c r="B1201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>12</v>
+      </c>
+      <c r="B1202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1203">
+        <v>11</v>
+      </c>
+      <c r="B1203">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1204">
+        <v>19</v>
+      </c>
+      <c r="B1204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1205">
+        <v>6</v>
+      </c>
+      <c r="B1205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1206">
+        <v>17</v>
+      </c>
+      <c r="B1206">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1207">
+        <v>11</v>
+      </c>
+      <c r="B1207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1208">
+        <v>18</v>
+      </c>
+      <c r="B1208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1209">
+        <v>3</v>
+      </c>
+      <c r="B1209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1210">
+        <v>4</v>
+      </c>
+      <c r="B1210">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1211">
+        <v>15</v>
+      </c>
+      <c r="B1211">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1212">
+        <v>20</v>
+      </c>
+      <c r="B1212">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1213">
+        <v>20</v>
+      </c>
+      <c r="B1213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1214">
+        <v>1</v>
+      </c>
+      <c r="B1214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1215">
+        <v>10</v>
+      </c>
+      <c r="B1215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1216">
+        <v>5</v>
+      </c>
+      <c r="B1216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1217">
+        <v>12</v>
+      </c>
+      <c r="B1217">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1218">
+        <v>5</v>
+      </c>
+      <c r="B1218">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1219">
+        <v>11</v>
+      </c>
+      <c r="B1219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1220">
+        <v>15</v>
+      </c>
+      <c r="B1220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1221">
+        <v>11</v>
+      </c>
+      <c r="B1221">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222">
+        <v>11</v>
+      </c>
+      <c r="B1222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1223">
+        <v>9</v>
+      </c>
+      <c r="B1223">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1224">
+        <v>17</v>
+      </c>
+      <c r="B1224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1225">
+        <v>11</v>
+      </c>
+      <c r="B1225">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1226">
+        <v>5</v>
+      </c>
+      <c r="B1226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1227">
+        <v>12</v>
+      </c>
+      <c r="B1227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1228">
+        <v>9</v>
+      </c>
+      <c r="B1228">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1229">
+        <v>8</v>
+      </c>
+      <c r="B1229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1230">
+        <v>4</v>
+      </c>
+      <c r="B1230">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1231">
+        <v>19</v>
+      </c>
+      <c r="B1231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1232">
+        <v>17</v>
+      </c>
+      <c r="B1232">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1233">
+        <v>15</v>
+      </c>
+      <c r="B1233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1234">
+        <v>4</v>
+      </c>
+      <c r="B1234">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1235">
+        <v>5</v>
+      </c>
+      <c r="B1235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1236">
+        <v>16</v>
+      </c>
+      <c r="B1236">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1237">
+        <v>10</v>
+      </c>
+      <c r="B1237">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1238">
+        <v>7</v>
+      </c>
+      <c r="B1238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1239">
+        <v>2</v>
+      </c>
+      <c r="B1239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1240">
+        <v>9</v>
+      </c>
+      <c r="B1240">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1241">
+        <v>9</v>
+      </c>
+      <c r="B1241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1242">
+        <v>9</v>
+      </c>
+      <c r="B1242">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1243">
+        <v>7</v>
+      </c>
+      <c r="B1243">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1244">
+        <v>8</v>
+      </c>
+      <c r="B1244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1245">
+        <v>8</v>
+      </c>
+      <c r="B1245">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1246">
+        <v>2</v>
+      </c>
+      <c r="B1246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1247">
+        <v>6</v>
+      </c>
+      <c r="B1247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1248">
+        <v>2</v>
+      </c>
+      <c r="B1248">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1249">
+        <v>1</v>
+      </c>
+      <c r="B1249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1250">
+        <v>12</v>
+      </c>
+      <c r="B1250">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1251">
+        <v>19</v>
+      </c>
+      <c r="B1251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1252">
+        <v>10</v>
+      </c>
+      <c r="B1252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1253">
+        <v>11</v>
+      </c>
+      <c r="B1253">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254">
+        <v>3</v>
+      </c>
+      <c r="B1254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1255">
+        <v>14</v>
+      </c>
+      <c r="B1255">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1256">
+        <v>18</v>
+      </c>
+      <c r="B1256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1257">
+        <v>2</v>
+      </c>
+      <c r="B1257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258">
+        <v>19</v>
+      </c>
+      <c r="B1258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1259">
+        <v>11</v>
+      </c>
+      <c r="B1259">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1260">
+        <v>6</v>
+      </c>
+      <c r="B1260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1261">
+        <v>13</v>
+      </c>
+      <c r="B1261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1262">
+        <v>1</v>
+      </c>
+      <c r="B1262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1263">
+        <v>9</v>
+      </c>
+      <c r="B1263">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1264">
+        <v>1</v>
+      </c>
+      <c r="B1264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1265">
+        <v>3</v>
+      </c>
+      <c r="B1265">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1266">
+        <v>10</v>
+      </c>
+      <c r="B1266">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1267">
+        <v>7</v>
+      </c>
+      <c r="B1267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1268">
+        <v>20</v>
+      </c>
+      <c r="B1268">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1269">
+        <v>16</v>
+      </c>
+      <c r="B1269">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1270">
+        <v>16</v>
+      </c>
+      <c r="B1270">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1271">
+        <v>17</v>
+      </c>
+      <c r="B1271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1272">
+        <v>3</v>
+      </c>
+      <c r="B1272">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1273">
+        <v>20</v>
+      </c>
+      <c r="B1273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1274">
+        <v>2</v>
+      </c>
+      <c r="B1274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1275">
+        <v>17</v>
+      </c>
+      <c r="B1275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276">
+        <v>18</v>
+      </c>
+      <c r="B1276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277">
+        <v>15</v>
+      </c>
+      <c r="B1277">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1278">
+        <v>17</v>
+      </c>
+      <c r="B1278">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279">
+        <v>10</v>
+      </c>
+      <c r="B1279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1280">
+        <v>20</v>
+      </c>
+      <c r="B1280">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1281">
+        <v>12</v>
+      </c>
+      <c r="B1281">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1282">
+        <v>13</v>
+      </c>
+      <c r="B1282">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1283">
+        <v>4</v>
+      </c>
+      <c r="B1283">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1284">
+        <v>20</v>
+      </c>
+      <c r="B1284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1285">
+        <v>15</v>
+      </c>
+      <c r="B1285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1286">
+        <v>10</v>
+      </c>
+      <c r="B1286">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1287">
+        <v>12</v>
+      </c>
+      <c r="B1287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1288">
+        <v>20</v>
+      </c>
+      <c r="B1288">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1289">
+        <v>11</v>
+      </c>
+      <c r="B1289">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1290">
+        <v>15</v>
+      </c>
+      <c r="B1290">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1291">
+        <v>1</v>
+      </c>
+      <c r="B1291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1292">
+        <v>18</v>
+      </c>
+      <c r="B1292">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1293">
+        <v>17</v>
+      </c>
+      <c r="B1293">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1294">
+        <v>6</v>
+      </c>
+      <c r="B1294">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1295">
+        <v>5</v>
+      </c>
+      <c r="B1295">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1296">
+        <v>1</v>
+      </c>
+      <c r="B1296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1297">
+        <v>19</v>
+      </c>
+      <c r="B1297">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298">
+        <v>9</v>
+      </c>
+      <c r="B1298">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299">
+        <v>6</v>
+      </c>
+      <c r="B1299">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300">
+        <v>12</v>
+      </c>
+      <c r="B1300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301">
+        <v>17</v>
+      </c>
+      <c r="B1301">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302">
+        <v>17</v>
+      </c>
+      <c r="B1302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1303">
+        <v>14</v>
+      </c>
+      <c r="B1303">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304">
+        <v>19</v>
+      </c>
+      <c r="B1304">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305">
+        <v>8</v>
+      </c>
+      <c r="B1305">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1306">
+        <v>4</v>
+      </c>
+      <c r="B1306">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1307">
+        <v>13</v>
+      </c>
+      <c r="B1307">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308">
+        <v>20</v>
+      </c>
+      <c r="B1308">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1309">
+        <v>13</v>
+      </c>
+      <c r="B1309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310">
+        <v>11</v>
+      </c>
+      <c r="B1310">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1311">
+        <v>16</v>
+      </c>
+      <c r="B1311">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1312">
+        <v>13</v>
+      </c>
+      <c r="B1312">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1313">
+        <v>3</v>
+      </c>
+      <c r="B1313">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1314">
+        <v>7</v>
+      </c>
+      <c r="B1314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1315">
+        <v>11</v>
+      </c>
+      <c r="B1315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1316">
+        <v>19</v>
+      </c>
+      <c r="B1316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1317">
+        <v>19</v>
+      </c>
+      <c r="B1317">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1318">
+        <v>8</v>
+      </c>
+      <c r="B1318">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319">
+        <v>1</v>
+      </c>
+      <c r="B1319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1320">
+        <v>3</v>
+      </c>
+      <c r="B1320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321">
+        <v>12</v>
+      </c>
+      <c r="B1321">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1322">
+        <v>2</v>
+      </c>
+      <c r="B1322">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1323">
+        <v>10</v>
+      </c>
+      <c r="B1323">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1324">
+        <v>19</v>
+      </c>
+      <c r="B1324">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1325">
+        <v>19</v>
+      </c>
+      <c r="B1325">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1326">
+        <v>2</v>
+      </c>
+      <c r="B1326">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1327">
+        <v>12</v>
+      </c>
+      <c r="B1327">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1328">
+        <v>18</v>
+      </c>
+      <c r="B1328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1329">
+        <v>6</v>
+      </c>
+      <c r="B1329">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330">
+        <v>11</v>
+      </c>
+      <c r="B1330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331">
+        <v>11</v>
+      </c>
+      <c r="B1331">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1332">
+        <v>12</v>
+      </c>
+      <c r="B1332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1333">
+        <v>14</v>
+      </c>
+      <c r="B1333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1334">
+        <v>18</v>
+      </c>
+      <c r="B1334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1335">
+        <v>13</v>
+      </c>
+      <c r="B1335">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1336">
+        <v>14</v>
+      </c>
+      <c r="B1336">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1337">
+        <v>1</v>
+      </c>
+      <c r="B1337">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338">
+        <v>8</v>
+      </c>
+      <c r="B1338">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339">
+        <v>19</v>
+      </c>
+      <c r="B1339">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340">
+        <v>12</v>
+      </c>
+      <c r="B1340">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1341">
+        <v>11</v>
+      </c>
+      <c r="B1341">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1342">
+        <v>2</v>
+      </c>
+      <c r="B1342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343">
+        <v>14</v>
+      </c>
+      <c r="B1343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344">
+        <v>3</v>
+      </c>
+      <c r="B1344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345">
+        <v>18</v>
+      </c>
+      <c r="B1345">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1346">
+        <v>9</v>
+      </c>
+      <c r="B1346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1347">
+        <v>9</v>
+      </c>
+      <c r="B1347">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1348">
+        <v>8</v>
+      </c>
+      <c r="B1348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1349">
+        <v>3</v>
+      </c>
+      <c r="B1349">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1350">
+        <v>2</v>
+      </c>
+      <c r="B1350">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1351">
+        <v>12</v>
+      </c>
+      <c r="B1351">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1352">
+        <v>13</v>
+      </c>
+      <c r="B1352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1353">
+        <v>1</v>
+      </c>
+      <c r="B1353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1354">
+        <v>13</v>
+      </c>
+      <c r="B1354">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1355">
+        <v>18</v>
+      </c>
+      <c r="B1355">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1356">
+        <v>11</v>
+      </c>
+      <c r="B1356">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1357">
+        <v>2</v>
+      </c>
+      <c r="B1357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1358">
+        <v>1</v>
+      </c>
+      <c r="B1358">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1359">
+        <v>4</v>
+      </c>
+      <c r="B1359">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1360">
+        <v>9</v>
+      </c>
+      <c r="B1360">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1361">
+        <v>11</v>
+      </c>
+      <c r="B1361">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362">
+        <v>18</v>
+      </c>
+      <c r="B1362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1363">
+        <v>19</v>
+      </c>
+      <c r="B1363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364">
+        <v>12</v>
+      </c>
+      <c r="B1364">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1365">
+        <v>3</v>
+      </c>
+      <c r="B1365">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366">
+        <v>20</v>
+      </c>
+      <c r="B1366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1367">
+        <v>20</v>
+      </c>
+      <c r="B1367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1368">
+        <v>1</v>
+      </c>
+      <c r="B1368">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1369">
+        <v>3</v>
+      </c>
+      <c r="B1369">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1370">
+        <v>11</v>
+      </c>
+      <c r="B1370">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1371">
+        <v>10</v>
+      </c>
+      <c r="B1371">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1372">
+        <v>6</v>
+      </c>
+      <c r="B1372">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1373">
+        <v>15</v>
+      </c>
+      <c r="B1373">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1374">
+        <v>9</v>
+      </c>
+      <c r="B1374">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1375">
+        <v>16</v>
+      </c>
+      <c r="B1375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1376">
+        <v>2</v>
+      </c>
+      <c r="B1376">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1377">
+        <v>14</v>
+      </c>
+      <c r="B1377">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1378">
+        <v>7</v>
+      </c>
+      <c r="B1378">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379">
+        <v>2</v>
+      </c>
+      <c r="B1379">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1380">
+        <v>9</v>
+      </c>
+      <c r="B1380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1381">
+        <v>18</v>
+      </c>
+      <c r="B1381">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1382">
+        <v>14</v>
+      </c>
+      <c r="B1382">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1383">
+        <v>19</v>
+      </c>
+      <c r="B1383">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1384">
+        <v>12</v>
+      </c>
+      <c r="B1384">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1385">
+        <v>1</v>
+      </c>
+      <c r="B1385">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1386">
+        <v>17</v>
+      </c>
+      <c r="B1386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1387">
+        <v>7</v>
+      </c>
+      <c r="B1387">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1388">
+        <v>12</v>
+      </c>
+      <c r="B1388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1389">
+        <v>6</v>
+      </c>
+      <c r="B1389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1390">
+        <v>12</v>
+      </c>
+      <c r="B1390">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1391">
+        <v>17</v>
+      </c>
+      <c r="B1391">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1392">
+        <v>14</v>
+      </c>
+      <c r="B1392">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1393">
+        <v>16</v>
+      </c>
+      <c r="B1393">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1394">
+        <v>19</v>
+      </c>
+      <c r="B1394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1395">
+        <v>1</v>
+      </c>
+      <c r="B1395">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1396">
+        <v>7</v>
+      </c>
+      <c r="B1396">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1397">
+        <v>6</v>
+      </c>
+      <c r="B1397">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1398">
+        <v>2</v>
+      </c>
+      <c r="B1398">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1399">
+        <v>1</v>
+      </c>
+      <c r="B1399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400">
+        <v>15</v>
+      </c>
+      <c r="B1400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1401">
+        <v>10</v>
+      </c>
+      <c r="B1401">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1402">
+        <v>1</v>
+      </c>
+      <c r="B1402">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1403">
+        <v>2</v>
+      </c>
+      <c r="B1403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1404">
+        <v>13</v>
+      </c>
+      <c r="B1404">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1405">
+        <v>18</v>
+      </c>
+      <c r="B1405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1406">
+        <v>20</v>
+      </c>
+      <c r="B1406">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1407">
+        <v>8</v>
+      </c>
+      <c r="B1407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1408">
+        <v>16</v>
+      </c>
+      <c r="B1408">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1409">
+        <v>19</v>
+      </c>
+      <c r="B1409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1410">
+        <v>9</v>
+      </c>
+      <c r="B1410">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1411">
+        <v>13</v>
+      </c>
+      <c r="B1411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1412">
+        <v>7</v>
+      </c>
+      <c r="B1412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1413">
+        <v>19</v>
+      </c>
+      <c r="B1413">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1414">
+        <v>15</v>
+      </c>
+      <c r="B1414">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1415">
+        <v>7</v>
+      </c>
+      <c r="B1415">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1416">
+        <v>8</v>
+      </c>
+      <c r="B1416">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1417">
+        <v>15</v>
+      </c>
+      <c r="B1417">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1418">
+        <v>13</v>
+      </c>
+      <c r="B1418">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1419">
+        <v>15</v>
+      </c>
+      <c r="B1419">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1420">
+        <v>12</v>
+      </c>
+      <c r="B1420">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1421">
+        <v>13</v>
+      </c>
+      <c r="B1421">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1422">
+        <v>20</v>
+      </c>
+      <c r="B1422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1423">
+        <v>19</v>
+      </c>
+      <c r="B1423">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1424">
+        <v>5</v>
+      </c>
+      <c r="B1424">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1425">
+        <v>12</v>
+      </c>
+      <c r="B1425">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1426">
+        <v>19</v>
+      </c>
+      <c r="B1426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1427">
+        <v>20</v>
+      </c>
+      <c r="B1427">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1428">
+        <v>4</v>
+      </c>
+      <c r="B1428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1429">
+        <v>12</v>
+      </c>
+      <c r="B1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1430">
+        <v>17</v>
+      </c>
+      <c r="B1430">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1431">
+        <v>12</v>
+      </c>
+      <c r="B1431">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1432">
+        <v>2</v>
+      </c>
+      <c r="B1432">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1433">
+        <v>10</v>
+      </c>
+      <c r="B1433">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1434">
+        <v>2</v>
+      </c>
+      <c r="B1434">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1435">
+        <v>11</v>
+      </c>
+      <c r="B1435">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1436">
+        <v>20</v>
+      </c>
+      <c r="B1436">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1437">
+        <v>8</v>
+      </c>
+      <c r="B1437">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1438">
+        <v>4</v>
+      </c>
+      <c r="B1438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1439">
+        <v>9</v>
+      </c>
+      <c r="B1439">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1440">
+        <v>20</v>
+      </c>
+      <c r="B1440">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1441">
+        <v>3</v>
+      </c>
+      <c r="B1441">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1442">
+        <v>11</v>
+      </c>
+      <c r="B1442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1443">
+        <v>17</v>
+      </c>
+      <c r="B1443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1444">
+        <v>17</v>
+      </c>
+      <c r="B1444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1445">
+        <v>2</v>
+      </c>
+      <c r="B1445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1446">
+        <v>15</v>
+      </c>
+      <c r="B1446">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1447">
+        <v>14</v>
+      </c>
+      <c r="B1447">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1448">
+        <v>11</v>
+      </c>
+      <c r="B1448">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1449">
+        <v>3</v>
+      </c>
+      <c r="B1449">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1450">
+        <v>19</v>
+      </c>
+      <c r="B1450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1451">
+        <v>7</v>
+      </c>
+      <c r="B1451">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1452">
+        <v>19</v>
+      </c>
+      <c r="B1452">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1453">
+        <v>12</v>
+      </c>
+      <c r="B1453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1454">
+        <v>19</v>
+      </c>
+      <c r="B1454">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1455">
+        <v>11</v>
+      </c>
+      <c r="B1455">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1456">
+        <v>13</v>
+      </c>
+      <c r="B1456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1457">
+        <v>19</v>
+      </c>
+      <c r="B1457">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1458">
+        <v>17</v>
+      </c>
+      <c r="B1458">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1459">
+        <v>20</v>
+      </c>
+      <c r="B1459">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1460">
+        <v>6</v>
+      </c>
+      <c r="B1460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1461">
+        <v>11</v>
+      </c>
+      <c r="B1461">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1462">
+        <v>11</v>
+      </c>
+      <c r="B1462">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1463">
+        <v>16</v>
+      </c>
+      <c r="B1463">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1464">
+        <v>17</v>
+      </c>
+      <c r="B1464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1465">
+        <v>17</v>
+      </c>
+      <c r="B1465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1466">
+        <v>12</v>
+      </c>
+      <c r="B1466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1467">
+        <v>20</v>
+      </c>
+      <c r="B1467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1468">
+        <v>7</v>
+      </c>
+      <c r="B1468">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1469">
+        <v>4</v>
+      </c>
+      <c r="B1469">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1470">
+        <v>9</v>
+      </c>
+      <c r="B1470">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1471">
+        <v>2</v>
+      </c>
+      <c r="B1471">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1472">
+        <v>4</v>
+      </c>
+      <c r="B1472">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1473">
+        <v>19</v>
+      </c>
+      <c r="B1473">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1474">
+        <v>18</v>
+      </c>
+      <c r="B1474">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1475">
+        <v>3</v>
+      </c>
+      <c r="B1475">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1476">
+        <v>13</v>
+      </c>
+      <c r="B1476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1477">
+        <v>12</v>
+      </c>
+      <c r="B1477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1478">
+        <v>5</v>
+      </c>
+      <c r="B1478">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1479">
+        <v>20</v>
+      </c>
+      <c r="B1479">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1480">
+        <v>10</v>
+      </c>
+      <c r="B1480">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1481">
+        <v>17</v>
+      </c>
+      <c r="B1481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1482">
+        <v>4</v>
+      </c>
+      <c r="B1482">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1483">
+        <v>15</v>
+      </c>
+      <c r="B1483">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1484">
+        <v>14</v>
+      </c>
+      <c r="B1484">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1485">
+        <v>12</v>
+      </c>
+      <c r="B1485">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1486">
+        <v>12</v>
+      </c>
+      <c r="B1486">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1487">
+        <v>14</v>
+      </c>
+      <c r="B1487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1488">
+        <v>7</v>
+      </c>
+      <c r="B1488">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1489">
+        <v>14</v>
+      </c>
+      <c r="B1489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1490">
+        <v>16</v>
+      </c>
+      <c r="B1490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1491">
+        <v>11</v>
+      </c>
+      <c r="B1491">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1492">
+        <v>3</v>
+      </c>
+      <c r="B1492">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1493">
+        <v>20</v>
+      </c>
+      <c r="B1493">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1494">
+        <v>1</v>
+      </c>
+      <c r="B1494">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1495">
+        <v>20</v>
+      </c>
+      <c r="B1495">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1496">
+        <v>3</v>
+      </c>
+      <c r="B1496">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1497">
+        <v>14</v>
+      </c>
+      <c r="B1497">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1498">
+        <v>5</v>
+      </c>
+      <c r="B1498">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1499">
+        <v>8</v>
+      </c>
+      <c r="B1499">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1500">
+        <v>6</v>
+      </c>
+      <c r="B1500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1501">
+        <v>19</v>
+      </c>
+      <c r="B1501">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1502">
+        <v>15</v>
+      </c>
+      <c r="B1502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1503">
+        <v>9</v>
+      </c>
+      <c r="B1503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1504">
+        <v>12</v>
+      </c>
+      <c r="B1504">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1505">
+        <v>3</v>
+      </c>
+      <c r="B1505">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1506">
+        <v>18</v>
+      </c>
+      <c r="B1506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1507">
+        <v>6</v>
+      </c>
+      <c r="B1507">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1508">
+        <v>4</v>
+      </c>
+      <c r="B1508">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1509">
+        <v>4</v>
+      </c>
+      <c r="B1509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1510">
+        <v>5</v>
+      </c>
+      <c r="B1510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1511">
+        <v>1</v>
+      </c>
+      <c r="B1511">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1512">
+        <v>12</v>
+      </c>
+      <c r="B1512">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1513">
+        <v>2</v>
+      </c>
+      <c r="B1513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1514">
+        <v>19</v>
+      </c>
+      <c r="B1514">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1515">
+        <v>20</v>
+      </c>
+      <c r="B1515">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1516">
+        <v>16</v>
+      </c>
+      <c r="B1516">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1517">
+        <v>9</v>
+      </c>
+      <c r="B1517">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1518">
+        <v>11</v>
+      </c>
+      <c r="B1518">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1519">
+        <v>14</v>
+      </c>
+      <c r="B1519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1520">
+        <v>8</v>
+      </c>
+      <c r="B1520">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1521">
+        <v>18</v>
+      </c>
+      <c r="B1521">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1522">
+        <v>14</v>
+      </c>
+      <c r="B1522">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1523">
+        <v>15</v>
+      </c>
+      <c r="B1523">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1524">
+        <v>7</v>
+      </c>
+      <c r="B1524">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1525">
+        <v>18</v>
+      </c>
+      <c r="B1525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1526">
+        <v>14</v>
+      </c>
+      <c r="B1526">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1527">
+        <v>19</v>
+      </c>
+      <c r="B1527">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1528">
+        <v>17</v>
+      </c>
+      <c r="B1528">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1529">
+        <v>5</v>
+      </c>
+      <c r="B1529">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1530">
+        <v>10</v>
+      </c>
+      <c r="B1530">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1531">
+        <v>14</v>
+      </c>
+      <c r="B1531">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1532">
+        <v>8</v>
+      </c>
+      <c r="B1532">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1533">
+        <v>6</v>
+      </c>
+      <c r="B1533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1534">
+        <v>16</v>
+      </c>
+      <c r="B1534">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1535">
+        <v>20</v>
+      </c>
+      <c r="B1535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1536">
+        <v>17</v>
+      </c>
+      <c r="B1536">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1537">
+        <v>17</v>
+      </c>
+      <c r="B1537">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1538">
+        <v>6</v>
+      </c>
+      <c r="B1538">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1539">
+        <v>11</v>
+      </c>
+      <c r="B1539">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1540">
+        <v>11</v>
+      </c>
+      <c r="B1540">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1541">
+        <v>3</v>
+      </c>
+      <c r="B1541">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1542">
+        <v>20</v>
+      </c>
+      <c r="B1542">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1543">
+        <v>17</v>
+      </c>
+      <c r="B1543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1544">
+        <v>17</v>
+      </c>
+      <c r="B1544">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1545">
+        <v>7</v>
+      </c>
+      <c r="B1545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1546">
+        <v>7</v>
+      </c>
+      <c r="B1546">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1547">
+        <v>11</v>
+      </c>
+      <c r="B1547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1548">
+        <v>17</v>
+      </c>
+      <c r="B1548">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1549">
+        <v>9</v>
+      </c>
+      <c r="B1549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1550">
+        <v>8</v>
+      </c>
+      <c r="B1550">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1551">
+        <v>12</v>
+      </c>
+      <c r="B1551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1552">
+        <v>1</v>
+      </c>
+      <c r="B1552">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1553">
+        <v>9</v>
+      </c>
+      <c r="B1553">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1554">
+        <v>6</v>
+      </c>
+      <c r="B1554">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1555">
+        <v>8</v>
+      </c>
+      <c r="B1555">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1556">
+        <v>13</v>
+      </c>
+      <c r="B1556">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dice_test.xlsx
+++ b/Dice_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chmullens/Documents/GitHub/Dice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D09874-4181-A144-97D9-911152B248FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA89CDB-D259-344B-8518-C1DE1B3D61D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{D71FB28A-5275-6641-8EEB-6B08F00334B6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{D71FB28A-5275-6641-8EEB-6B08F00334B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Actually_test_d20s" sheetId="1" r:id="rId1"/>
@@ -394,11 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0194933F-D8D3-DD40-9924-A4C1D50508BE}">
-  <dimension ref="A1:F1556"/>
+  <dimension ref="A1:F2302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1557" sqref="A1557"/>
+      <pane ySplit="1" topLeftCell="A2270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2303" sqref="A2303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13006,6 +13006,5974 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1557">
+        <v>12</v>
+      </c>
+      <c r="B1557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1558">
+        <v>8</v>
+      </c>
+      <c r="B1558">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1559">
+        <v>9</v>
+      </c>
+      <c r="B1559">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1560">
+        <v>9</v>
+      </c>
+      <c r="B1560">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1561">
+        <v>12</v>
+      </c>
+      <c r="B1561">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1562">
+        <v>10</v>
+      </c>
+      <c r="B1562">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1563">
+        <v>19</v>
+      </c>
+      <c r="B1563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1564">
+        <v>2</v>
+      </c>
+      <c r="B1564">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1565">
+        <v>7</v>
+      </c>
+      <c r="B1565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1566">
+        <v>6</v>
+      </c>
+      <c r="B1566">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1567">
+        <v>17</v>
+      </c>
+      <c r="B1567">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1568">
+        <v>8</v>
+      </c>
+      <c r="B1568">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1569">
+        <v>12</v>
+      </c>
+      <c r="B1569">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1570">
+        <v>19</v>
+      </c>
+      <c r="B1570">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1571">
+        <v>13</v>
+      </c>
+      <c r="B1571">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1572">
+        <v>19</v>
+      </c>
+      <c r="B1572">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1573">
+        <v>20</v>
+      </c>
+      <c r="B1573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1574">
+        <v>12</v>
+      </c>
+      <c r="B1574">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1575">
+        <v>20</v>
+      </c>
+      <c r="B1575">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1576">
+        <v>3</v>
+      </c>
+      <c r="B1576">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1577">
+        <v>5</v>
+      </c>
+      <c r="B1577">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1578">
+        <v>11</v>
+      </c>
+      <c r="B1578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1579">
+        <v>12</v>
+      </c>
+      <c r="B1579">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1580">
+        <v>13</v>
+      </c>
+      <c r="B1580">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1581">
+        <v>1</v>
+      </c>
+      <c r="B1581">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1582">
+        <v>7</v>
+      </c>
+      <c r="B1582">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1583">
+        <v>19</v>
+      </c>
+      <c r="B1583">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1584">
+        <v>8</v>
+      </c>
+      <c r="B1584">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1585">
+        <v>14</v>
+      </c>
+      <c r="B1585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1586">
+        <v>12</v>
+      </c>
+      <c r="B1586">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1587">
+        <v>10</v>
+      </c>
+      <c r="B1587">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1588">
+        <v>10</v>
+      </c>
+      <c r="B1588">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1589">
+        <v>4</v>
+      </c>
+      <c r="B1589">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1590">
+        <v>18</v>
+      </c>
+      <c r="B1590">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1591">
+        <v>1</v>
+      </c>
+      <c r="B1591">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1592">
+        <v>4</v>
+      </c>
+      <c r="B1592">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1593">
+        <v>8</v>
+      </c>
+      <c r="B1593">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1594">
+        <v>12</v>
+      </c>
+      <c r="B1594">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1595">
+        <v>11</v>
+      </c>
+      <c r="B1595">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1596">
+        <v>14</v>
+      </c>
+      <c r="B1596">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1597">
+        <v>19</v>
+      </c>
+      <c r="B1597">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1598">
+        <v>20</v>
+      </c>
+      <c r="B1598">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1599">
+        <v>17</v>
+      </c>
+      <c r="B1599">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1600">
+        <v>5</v>
+      </c>
+      <c r="B1600">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1601">
+        <v>7</v>
+      </c>
+      <c r="B1601">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1602">
+        <v>16</v>
+      </c>
+      <c r="B1602">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1603">
+        <v>12</v>
+      </c>
+      <c r="B1603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1604">
+        <v>4</v>
+      </c>
+      <c r="B1604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1605">
+        <v>4</v>
+      </c>
+      <c r="B1605">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1606">
+        <v>1</v>
+      </c>
+      <c r="B1606">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1607">
+        <v>18</v>
+      </c>
+      <c r="B1607">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1608">
+        <v>1</v>
+      </c>
+      <c r="B1608">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1609">
+        <v>8</v>
+      </c>
+      <c r="B1609">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1610">
+        <v>1</v>
+      </c>
+      <c r="B1610">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1611">
+        <v>12</v>
+      </c>
+      <c r="B1611">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1612">
+        <v>3</v>
+      </c>
+      <c r="B1612">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1613">
+        <v>13</v>
+      </c>
+      <c r="B1613">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1614">
+        <v>3</v>
+      </c>
+      <c r="B1614">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1615">
+        <v>16</v>
+      </c>
+      <c r="B1615">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1616">
+        <v>19</v>
+      </c>
+      <c r="B1616">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1617">
+        <v>6</v>
+      </c>
+      <c r="B1617">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1618">
+        <v>17</v>
+      </c>
+      <c r="B1618">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1619">
+        <v>3</v>
+      </c>
+      <c r="B1619">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1620">
+        <v>2</v>
+      </c>
+      <c r="B1620">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1621">
+        <v>8</v>
+      </c>
+      <c r="B1621">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1622">
+        <v>13</v>
+      </c>
+      <c r="B1622">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1623">
+        <v>9</v>
+      </c>
+      <c r="B1623">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1624">
+        <v>13</v>
+      </c>
+      <c r="B1624">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1625">
+        <v>1</v>
+      </c>
+      <c r="B1625">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1626">
+        <v>17</v>
+      </c>
+      <c r="B1626">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1627">
+        <v>8</v>
+      </c>
+      <c r="B1627">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1628">
+        <v>8</v>
+      </c>
+      <c r="B1628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1629">
+        <v>16</v>
+      </c>
+      <c r="B1629">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1630">
+        <v>3</v>
+      </c>
+      <c r="B1630">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1631">
+        <v>5</v>
+      </c>
+      <c r="B1631">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1632">
+        <v>20</v>
+      </c>
+      <c r="B1632">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1633">
+        <v>15</v>
+      </c>
+      <c r="B1633">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1634">
+        <v>19</v>
+      </c>
+      <c r="B1634">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1635">
+        <v>9</v>
+      </c>
+      <c r="B1635">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1636">
+        <v>10</v>
+      </c>
+      <c r="B1636">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1637">
+        <v>2</v>
+      </c>
+      <c r="B1637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1638">
+        <v>12</v>
+      </c>
+      <c r="B1638">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1639">
+        <v>15</v>
+      </c>
+      <c r="B1639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1640">
+        <v>18</v>
+      </c>
+      <c r="B1640">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1641">
+        <v>11</v>
+      </c>
+      <c r="B1641">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1642">
+        <v>15</v>
+      </c>
+      <c r="B1642">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1643">
+        <v>11</v>
+      </c>
+      <c r="B1643">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1644">
+        <v>17</v>
+      </c>
+      <c r="B1644">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1645">
+        <v>5</v>
+      </c>
+      <c r="B1645">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1646">
+        <v>13</v>
+      </c>
+      <c r="B1646">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1647">
+        <v>8</v>
+      </c>
+      <c r="B1647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1648">
+        <v>6</v>
+      </c>
+      <c r="B1648">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1649">
+        <v>18</v>
+      </c>
+      <c r="B1649">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1650">
+        <v>16</v>
+      </c>
+      <c r="B1650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1651">
+        <v>14</v>
+      </c>
+      <c r="B1651">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1652">
+        <v>11</v>
+      </c>
+      <c r="B1652">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1653">
+        <v>20</v>
+      </c>
+      <c r="B1653">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1654">
+        <v>3</v>
+      </c>
+      <c r="B1654">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1655">
+        <v>18</v>
+      </c>
+      <c r="B1655">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1656">
+        <v>3</v>
+      </c>
+      <c r="B1656">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1657">
+        <v>3</v>
+      </c>
+      <c r="B1657">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1658">
+        <v>2</v>
+      </c>
+      <c r="B1658">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1659">
+        <v>18</v>
+      </c>
+      <c r="B1659">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1660">
+        <v>4</v>
+      </c>
+      <c r="B1660">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1661">
+        <v>11</v>
+      </c>
+      <c r="B1661">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1662">
+        <v>4</v>
+      </c>
+      <c r="B1662">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1663">
+        <v>9</v>
+      </c>
+      <c r="B1663">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1664">
+        <v>19</v>
+      </c>
+      <c r="B1664">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1665">
+        <v>17</v>
+      </c>
+      <c r="B1665">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1666">
+        <v>14</v>
+      </c>
+      <c r="B1666">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1667">
+        <v>11</v>
+      </c>
+      <c r="B1667">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1668">
+        <v>4</v>
+      </c>
+      <c r="B1668">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1669">
+        <v>16</v>
+      </c>
+      <c r="B1669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1670">
+        <v>11</v>
+      </c>
+      <c r="B1670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1671">
+        <v>3</v>
+      </c>
+      <c r="B1671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1672">
+        <v>8</v>
+      </c>
+      <c r="B1672">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1673">
+        <v>4</v>
+      </c>
+      <c r="B1673">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1674">
+        <v>20</v>
+      </c>
+      <c r="B1674">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1675">
+        <v>19</v>
+      </c>
+      <c r="B1675">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1676">
+        <v>1</v>
+      </c>
+      <c r="B1676">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1677">
+        <v>2</v>
+      </c>
+      <c r="B1677">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1678">
+        <v>10</v>
+      </c>
+      <c r="B1678">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1679">
+        <v>11</v>
+      </c>
+      <c r="B1679">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1680">
+        <v>16</v>
+      </c>
+      <c r="B1680">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1681">
+        <v>19</v>
+      </c>
+      <c r="B1681">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1682">
+        <v>19</v>
+      </c>
+      <c r="B1682">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1683">
+        <v>6</v>
+      </c>
+      <c r="B1683">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1684">
+        <v>5</v>
+      </c>
+      <c r="B1684">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1685">
+        <v>11</v>
+      </c>
+      <c r="B1685">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1686">
+        <v>19</v>
+      </c>
+      <c r="B1686">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1687">
+        <v>7</v>
+      </c>
+      <c r="B1687">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1688">
+        <v>19</v>
+      </c>
+      <c r="B1688">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1689">
+        <v>11</v>
+      </c>
+      <c r="B1689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1690">
+        <v>9</v>
+      </c>
+      <c r="B1690">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1691">
+        <v>20</v>
+      </c>
+      <c r="B1691">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1692">
+        <v>13</v>
+      </c>
+      <c r="B1692">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1693">
+        <v>2</v>
+      </c>
+      <c r="B1693">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1694">
+        <v>18</v>
+      </c>
+      <c r="B1694">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1695">
+        <v>3</v>
+      </c>
+      <c r="B1695">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1696">
+        <v>6</v>
+      </c>
+      <c r="B1696">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1697">
+        <v>2</v>
+      </c>
+      <c r="B1697">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1698">
+        <v>9</v>
+      </c>
+      <c r="B1698">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1699">
+        <v>1</v>
+      </c>
+      <c r="B1699">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1700">
+        <v>3</v>
+      </c>
+      <c r="B1700">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1701">
+        <v>18</v>
+      </c>
+      <c r="B1701">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1702">
+        <v>14</v>
+      </c>
+      <c r="B1702">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1703">
+        <v>4</v>
+      </c>
+      <c r="B1703">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1704">
+        <v>11</v>
+      </c>
+      <c r="B1704">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1705">
+        <v>1</v>
+      </c>
+      <c r="B1705">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1706">
+        <v>9</v>
+      </c>
+      <c r="B1706">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1707">
+        <v>7</v>
+      </c>
+      <c r="B1707">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1708">
+        <v>19</v>
+      </c>
+      <c r="B1708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1709">
+        <v>3</v>
+      </c>
+      <c r="B1709">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1710">
+        <v>7</v>
+      </c>
+      <c r="B1710">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1711">
+        <v>10</v>
+      </c>
+      <c r="B1711">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1712">
+        <v>18</v>
+      </c>
+      <c r="B1712">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1713">
+        <v>15</v>
+      </c>
+      <c r="B1713">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1714">
+        <v>4</v>
+      </c>
+      <c r="B1714">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1715">
+        <v>7</v>
+      </c>
+      <c r="B1715">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1716">
+        <v>19</v>
+      </c>
+      <c r="B1716">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1717">
+        <v>3</v>
+      </c>
+      <c r="B1717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1718">
+        <v>8</v>
+      </c>
+      <c r="B1718">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1719">
+        <v>1</v>
+      </c>
+      <c r="B1719">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1720">
+        <v>12</v>
+      </c>
+      <c r="B1720">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1721">
+        <v>5</v>
+      </c>
+      <c r="B1721">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1722">
+        <v>18</v>
+      </c>
+      <c r="B1722">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1723">
+        <v>19</v>
+      </c>
+      <c r="B1723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1724">
+        <v>18</v>
+      </c>
+      <c r="B1724">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1725">
+        <v>20</v>
+      </c>
+      <c r="B1725">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1726">
+        <v>16</v>
+      </c>
+      <c r="B1726">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1727">
+        <v>3</v>
+      </c>
+      <c r="B1727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1728">
+        <v>8</v>
+      </c>
+      <c r="B1728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1729">
+        <v>1</v>
+      </c>
+      <c r="B1729">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1730">
+        <v>7</v>
+      </c>
+      <c r="B1730">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1731">
+        <v>10</v>
+      </c>
+      <c r="B1731">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1732">
+        <v>12</v>
+      </c>
+      <c r="B1732">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1733">
+        <v>19</v>
+      </c>
+      <c r="B1733">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1734">
+        <v>20</v>
+      </c>
+      <c r="B1734">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1735">
+        <v>16</v>
+      </c>
+      <c r="B1735">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1736">
+        <v>19</v>
+      </c>
+      <c r="B1736">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1737">
+        <v>10</v>
+      </c>
+      <c r="B1737">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1738">
+        <v>18</v>
+      </c>
+      <c r="B1738">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1739">
+        <v>6</v>
+      </c>
+      <c r="B1739">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1740">
+        <v>1</v>
+      </c>
+      <c r="B1740">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1741">
+        <v>18</v>
+      </c>
+      <c r="B1741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1742">
+        <v>4</v>
+      </c>
+      <c r="B1742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1743">
+        <v>14</v>
+      </c>
+      <c r="B1743">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1744">
+        <v>13</v>
+      </c>
+      <c r="B1744">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1745">
+        <v>12</v>
+      </c>
+      <c r="B1745">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1746">
+        <v>10</v>
+      </c>
+      <c r="B1746">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1747">
+        <v>6</v>
+      </c>
+      <c r="B1747">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1748">
+        <v>8</v>
+      </c>
+      <c r="B1748">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1749">
+        <v>7</v>
+      </c>
+      <c r="B1749">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1750">
+        <v>4</v>
+      </c>
+      <c r="B1750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1751">
+        <v>11</v>
+      </c>
+      <c r="B1751">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1752">
+        <v>18</v>
+      </c>
+      <c r="B1752">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1753">
+        <v>1</v>
+      </c>
+      <c r="B1753">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1754">
+        <v>3</v>
+      </c>
+      <c r="B1754">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1755">
+        <v>9</v>
+      </c>
+      <c r="B1755">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1756">
+        <v>19</v>
+      </c>
+      <c r="B1756">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1757">
+        <v>1</v>
+      </c>
+      <c r="B1757">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1758">
+        <v>13</v>
+      </c>
+      <c r="B1758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1759">
+        <v>18</v>
+      </c>
+      <c r="B1759">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1760">
+        <v>5</v>
+      </c>
+      <c r="B1760">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1761">
+        <v>9</v>
+      </c>
+      <c r="B1761">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1762">
+        <v>7</v>
+      </c>
+      <c r="B1762">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1763">
+        <v>4</v>
+      </c>
+      <c r="B1763">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1764">
+        <v>6</v>
+      </c>
+      <c r="B1764">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1765">
+        <v>8</v>
+      </c>
+      <c r="B1765">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1766">
+        <v>9</v>
+      </c>
+      <c r="B1766">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1767">
+        <v>11</v>
+      </c>
+      <c r="B1767">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1768">
+        <v>9</v>
+      </c>
+      <c r="B1768">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1769">
+        <v>13</v>
+      </c>
+      <c r="B1769">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1770">
+        <v>9</v>
+      </c>
+      <c r="B1770">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1771">
+        <v>11</v>
+      </c>
+      <c r="B1771">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1772">
+        <v>13</v>
+      </c>
+      <c r="B1772">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1773">
+        <v>11</v>
+      </c>
+      <c r="B1773">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1774">
+        <v>6</v>
+      </c>
+      <c r="B1774">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1775">
+        <v>17</v>
+      </c>
+      <c r="B1775">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1776">
+        <v>12</v>
+      </c>
+      <c r="B1776">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1777">
+        <v>7</v>
+      </c>
+      <c r="B1777">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1778">
+        <v>3</v>
+      </c>
+      <c r="B1778">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1779">
+        <v>9</v>
+      </c>
+      <c r="B1779">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1780">
+        <v>1</v>
+      </c>
+      <c r="B1780">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1781">
+        <v>17</v>
+      </c>
+      <c r="B1781">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1782">
+        <v>12</v>
+      </c>
+      <c r="B1782">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1783">
+        <v>19</v>
+      </c>
+      <c r="B1783">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1784">
+        <v>19</v>
+      </c>
+      <c r="B1784">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1785">
+        <v>11</v>
+      </c>
+      <c r="B1785">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1786">
+        <v>7</v>
+      </c>
+      <c r="B1786">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1787">
+        <v>18</v>
+      </c>
+      <c r="B1787">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1788">
+        <v>11</v>
+      </c>
+      <c r="B1788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1789">
+        <v>3</v>
+      </c>
+      <c r="B1789">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1790">
+        <v>16</v>
+      </c>
+      <c r="B1790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1791">
+        <v>4</v>
+      </c>
+      <c r="B1791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1792">
+        <v>13</v>
+      </c>
+      <c r="B1792">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1793">
+        <v>17</v>
+      </c>
+      <c r="B1793">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1794">
+        <v>9</v>
+      </c>
+      <c r="B1794">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1795">
+        <v>19</v>
+      </c>
+      <c r="B1795">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1796">
+        <v>3</v>
+      </c>
+      <c r="B1796">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1797">
+        <v>3</v>
+      </c>
+      <c r="B1797">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1798">
+        <v>13</v>
+      </c>
+      <c r="B1798">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1799">
+        <v>9</v>
+      </c>
+      <c r="B1799">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1800">
+        <v>18</v>
+      </c>
+      <c r="B1800">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1801">
+        <v>10</v>
+      </c>
+      <c r="B1801">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1802">
+        <v>18</v>
+      </c>
+      <c r="B1802">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1803">
+        <v>16</v>
+      </c>
+      <c r="B1803">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1804">
+        <v>12</v>
+      </c>
+      <c r="B1804">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1805">
+        <v>14</v>
+      </c>
+      <c r="B1805">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1806">
+        <v>5</v>
+      </c>
+      <c r="B1806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1807">
+        <v>4</v>
+      </c>
+      <c r="B1807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1808">
+        <v>11</v>
+      </c>
+      <c r="B1808">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1809">
+        <v>2</v>
+      </c>
+      <c r="B1809">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1810">
+        <v>2</v>
+      </c>
+      <c r="B1810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1811">
+        <v>15</v>
+      </c>
+      <c r="B1811">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1812">
+        <v>1</v>
+      </c>
+      <c r="B1812">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1813">
+        <v>12</v>
+      </c>
+      <c r="B1813">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1814">
+        <v>19</v>
+      </c>
+      <c r="B1814">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1815">
+        <v>19</v>
+      </c>
+      <c r="B1815">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1816">
+        <v>2</v>
+      </c>
+      <c r="B1816">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1817">
+        <v>10</v>
+      </c>
+      <c r="B1817">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1818">
+        <v>18</v>
+      </c>
+      <c r="B1818">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1819">
+        <v>7</v>
+      </c>
+      <c r="B1819">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1820">
+        <v>10</v>
+      </c>
+      <c r="B1820">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1821">
+        <v>3</v>
+      </c>
+      <c r="B1821">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1822">
+        <v>1</v>
+      </c>
+      <c r="B1822">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1823">
+        <v>3</v>
+      </c>
+      <c r="B1823">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1824">
+        <v>6</v>
+      </c>
+      <c r="B1824">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1825">
+        <v>5</v>
+      </c>
+      <c r="B1825">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1826">
+        <v>9</v>
+      </c>
+      <c r="B1826">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1827">
+        <v>11</v>
+      </c>
+      <c r="B1827">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1828">
+        <v>3</v>
+      </c>
+      <c r="B1828">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1829">
+        <v>5</v>
+      </c>
+      <c r="B1829">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1830">
+        <v>17</v>
+      </c>
+      <c r="B1830">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1831">
+        <v>20</v>
+      </c>
+      <c r="B1831">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1832">
+        <v>18</v>
+      </c>
+      <c r="B1832">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1833">
+        <v>9</v>
+      </c>
+      <c r="B1833">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1834">
+        <v>12</v>
+      </c>
+      <c r="B1834">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1835">
+        <v>8</v>
+      </c>
+      <c r="B1835">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1836">
+        <v>4</v>
+      </c>
+      <c r="B1836">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1837">
+        <v>10</v>
+      </c>
+      <c r="B1837">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1838">
+        <v>7</v>
+      </c>
+      <c r="B1838">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1839">
+        <v>4</v>
+      </c>
+      <c r="B1839">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1840">
+        <v>19</v>
+      </c>
+      <c r="B1840">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1841">
+        <v>3</v>
+      </c>
+      <c r="B1841">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1842">
+        <v>4</v>
+      </c>
+      <c r="B1842">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1843">
+        <v>3</v>
+      </c>
+      <c r="B1843">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1844">
+        <v>1</v>
+      </c>
+      <c r="B1844">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1845">
+        <v>9</v>
+      </c>
+      <c r="B1845">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1846">
+        <v>9</v>
+      </c>
+      <c r="B1846">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1847">
+        <v>18</v>
+      </c>
+      <c r="B1847">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1848">
+        <v>3</v>
+      </c>
+      <c r="B1848">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1849">
+        <v>12</v>
+      </c>
+      <c r="B1849">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1850">
+        <v>14</v>
+      </c>
+      <c r="B1850">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1851">
+        <v>2</v>
+      </c>
+      <c r="B1851">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1852">
+        <v>4</v>
+      </c>
+      <c r="B1852">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1853">
+        <v>9</v>
+      </c>
+      <c r="B1853">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1854">
+        <v>8</v>
+      </c>
+      <c r="B1854">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1855">
+        <v>4</v>
+      </c>
+      <c r="B1855">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1856">
+        <v>3</v>
+      </c>
+      <c r="B1856">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1857">
+        <v>2</v>
+      </c>
+      <c r="B1857">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1858">
+        <v>3</v>
+      </c>
+      <c r="B1858">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1859">
+        <v>3</v>
+      </c>
+      <c r="B1859">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1860">
+        <v>15</v>
+      </c>
+      <c r="B1860">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1861">
+        <v>3</v>
+      </c>
+      <c r="B1861">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1862">
+        <v>7</v>
+      </c>
+      <c r="B1862">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1863">
+        <v>5</v>
+      </c>
+      <c r="B1863">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1864">
+        <v>18</v>
+      </c>
+      <c r="B1864">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1865">
+        <v>7</v>
+      </c>
+      <c r="B1865">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1866">
+        <v>20</v>
+      </c>
+      <c r="B1866">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1867">
+        <v>5</v>
+      </c>
+      <c r="B1867">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1868">
+        <v>3</v>
+      </c>
+      <c r="B1868">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1869">
+        <v>13</v>
+      </c>
+      <c r="B1869">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1870">
+        <v>9</v>
+      </c>
+      <c r="B1870">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1871">
+        <v>14</v>
+      </c>
+      <c r="B1871">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1872">
+        <v>18</v>
+      </c>
+      <c r="B1872">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1873">
+        <v>2</v>
+      </c>
+      <c r="B1873">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1874">
+        <v>12</v>
+      </c>
+      <c r="B1874">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1875">
+        <v>8</v>
+      </c>
+      <c r="B1875">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1876">
+        <v>3</v>
+      </c>
+      <c r="B1876">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1877">
+        <v>5</v>
+      </c>
+      <c r="B1877">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1878">
+        <v>11</v>
+      </c>
+      <c r="B1878">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1879">
+        <v>2</v>
+      </c>
+      <c r="B1879">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1880">
+        <v>18</v>
+      </c>
+      <c r="B1880">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1881">
+        <v>5</v>
+      </c>
+      <c r="B1881">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1882">
+        <v>1</v>
+      </c>
+      <c r="B1882">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1883">
+        <v>12</v>
+      </c>
+      <c r="B1883">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1884">
+        <v>3</v>
+      </c>
+      <c r="B1884">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1885">
+        <v>13</v>
+      </c>
+      <c r="B1885">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1886">
+        <v>4</v>
+      </c>
+      <c r="B1886">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1887">
+        <v>1</v>
+      </c>
+      <c r="B1887">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1888">
+        <v>3</v>
+      </c>
+      <c r="B1888">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1889">
+        <v>11</v>
+      </c>
+      <c r="B1889">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1890">
+        <v>7</v>
+      </c>
+      <c r="B1890">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1891">
+        <v>17</v>
+      </c>
+      <c r="B1891">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1892">
+        <v>8</v>
+      </c>
+      <c r="B1892">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1893">
+        <v>11</v>
+      </c>
+      <c r="B1893">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1894">
+        <v>16</v>
+      </c>
+      <c r="B1894">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1895">
+        <v>13</v>
+      </c>
+      <c r="B1895">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1896">
+        <v>3</v>
+      </c>
+      <c r="B1896">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1897">
+        <v>1</v>
+      </c>
+      <c r="B1897">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1898">
+        <v>11</v>
+      </c>
+      <c r="B1898">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1899">
+        <v>3</v>
+      </c>
+      <c r="B1899">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1900">
+        <v>11</v>
+      </c>
+      <c r="B1900">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1901">
+        <v>13</v>
+      </c>
+      <c r="B1901">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1902">
+        <v>3</v>
+      </c>
+      <c r="B1902">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1903">
+        <v>11</v>
+      </c>
+      <c r="B1903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1904">
+        <v>9</v>
+      </c>
+      <c r="B1904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1905">
+        <v>9</v>
+      </c>
+      <c r="B1905">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1906">
+        <v>18</v>
+      </c>
+      <c r="B1906">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1907">
+        <v>2</v>
+      </c>
+      <c r="B1907">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1908">
+        <v>13</v>
+      </c>
+      <c r="B1908">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1909">
+        <v>10</v>
+      </c>
+      <c r="B1909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1910">
+        <v>13</v>
+      </c>
+      <c r="B1910">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1911">
+        <v>9</v>
+      </c>
+      <c r="B1911">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1912">
+        <v>8</v>
+      </c>
+      <c r="B1912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1913">
+        <v>18</v>
+      </c>
+      <c r="B1913">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1914">
+        <v>19</v>
+      </c>
+      <c r="B1914">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1915">
+        <v>17</v>
+      </c>
+      <c r="B1915">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1916">
+        <v>8</v>
+      </c>
+      <c r="B1916">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1917">
+        <v>16</v>
+      </c>
+      <c r="B1917">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1918">
+        <v>9</v>
+      </c>
+      <c r="B1918">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1919">
+        <v>14</v>
+      </c>
+      <c r="B1919">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1920">
+        <v>11</v>
+      </c>
+      <c r="B1920">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1921">
+        <v>1</v>
+      </c>
+      <c r="B1921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1922">
+        <v>2</v>
+      </c>
+      <c r="B1922">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1923">
+        <v>13</v>
+      </c>
+      <c r="B1923">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1924">
+        <v>19</v>
+      </c>
+      <c r="B1924">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1925">
+        <v>14</v>
+      </c>
+      <c r="B1925">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1926">
+        <v>7</v>
+      </c>
+      <c r="B1926">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1927">
+        <v>6</v>
+      </c>
+      <c r="B1927">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1928">
+        <v>18</v>
+      </c>
+      <c r="B1928">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1929">
+        <v>16</v>
+      </c>
+      <c r="B1929">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1930">
+        <v>12</v>
+      </c>
+      <c r="B1930">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1931">
+        <v>11</v>
+      </c>
+      <c r="B1931">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1932">
+        <v>7</v>
+      </c>
+      <c r="B1932">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1933">
+        <v>19</v>
+      </c>
+      <c r="B1933">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1934">
+        <v>18</v>
+      </c>
+      <c r="B1934">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1935">
+        <v>18</v>
+      </c>
+      <c r="B1935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1936">
+        <v>6</v>
+      </c>
+      <c r="B1936">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1937">
+        <v>10</v>
+      </c>
+      <c r="B1937">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1938">
+        <v>12</v>
+      </c>
+      <c r="B1938">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1939">
+        <v>12</v>
+      </c>
+      <c r="B1939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1940">
+        <v>12</v>
+      </c>
+      <c r="B1940">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1941">
+        <v>17</v>
+      </c>
+      <c r="B1941">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1942">
+        <v>4</v>
+      </c>
+      <c r="B1942">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1943">
+        <v>12</v>
+      </c>
+      <c r="B1943">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1944">
+        <v>2</v>
+      </c>
+      <c r="B1944">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1945">
+        <v>6</v>
+      </c>
+      <c r="B1945">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1946">
+        <v>2</v>
+      </c>
+      <c r="B1946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1947">
+        <v>18</v>
+      </c>
+      <c r="B1947">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1948">
+        <v>12</v>
+      </c>
+      <c r="B1948">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1949">
+        <v>12</v>
+      </c>
+      <c r="B1949">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1950">
+        <v>16</v>
+      </c>
+      <c r="B1950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1951">
+        <v>7</v>
+      </c>
+      <c r="B1951">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1952">
+        <v>18</v>
+      </c>
+      <c r="B1952">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1953">
+        <v>19</v>
+      </c>
+      <c r="B1953">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1954">
+        <v>12</v>
+      </c>
+      <c r="B1954">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1955">
+        <v>10</v>
+      </c>
+      <c r="B1955">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1956">
+        <v>3</v>
+      </c>
+      <c r="B1956">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1957">
+        <v>8</v>
+      </c>
+      <c r="B1957">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1958">
+        <v>6</v>
+      </c>
+      <c r="B1958">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1959">
+        <v>20</v>
+      </c>
+      <c r="B1959">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1960">
+        <v>13</v>
+      </c>
+      <c r="B1960">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1961">
+        <v>15</v>
+      </c>
+      <c r="B1961">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1962">
+        <v>5</v>
+      </c>
+      <c r="B1962">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1963">
+        <v>18</v>
+      </c>
+      <c r="B1963">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1964">
+        <v>2</v>
+      </c>
+      <c r="B1964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1965">
+        <v>5</v>
+      </c>
+      <c r="B1965">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1966">
+        <v>3</v>
+      </c>
+      <c r="B1966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1967">
+        <v>6</v>
+      </c>
+      <c r="B1967">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1968">
+        <v>16</v>
+      </c>
+      <c r="B1968">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1969">
+        <v>14</v>
+      </c>
+      <c r="B1969">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1970">
+        <v>2</v>
+      </c>
+      <c r="B1970">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1971">
+        <v>9</v>
+      </c>
+      <c r="B1971">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1972">
+        <v>3</v>
+      </c>
+      <c r="B1972">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1973">
+        <v>2</v>
+      </c>
+      <c r="B1973">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1974">
+        <v>4</v>
+      </c>
+      <c r="B1974">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1975">
+        <v>1</v>
+      </c>
+      <c r="B1975">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1976">
+        <v>3</v>
+      </c>
+      <c r="B1976">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1977">
+        <v>6</v>
+      </c>
+      <c r="B1977">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1978">
+        <v>13</v>
+      </c>
+      <c r="B1978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1979">
+        <v>12</v>
+      </c>
+      <c r="B1979">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1980">
+        <v>3</v>
+      </c>
+      <c r="B1980">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1981">
+        <v>19</v>
+      </c>
+      <c r="B1981">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1982">
+        <v>2</v>
+      </c>
+      <c r="B1982">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1983">
+        <v>2</v>
+      </c>
+      <c r="B1983">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1984">
+        <v>16</v>
+      </c>
+      <c r="B1984">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1985">
+        <v>9</v>
+      </c>
+      <c r="B1985">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1986">
+        <v>13</v>
+      </c>
+      <c r="B1986">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1987">
+        <v>6</v>
+      </c>
+      <c r="B1987">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1988">
+        <v>7</v>
+      </c>
+      <c r="B1988">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1989">
+        <v>12</v>
+      </c>
+      <c r="B1989">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1990">
+        <v>8</v>
+      </c>
+      <c r="B1990">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1991">
+        <v>1</v>
+      </c>
+      <c r="B1991">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1992">
+        <v>4</v>
+      </c>
+      <c r="B1992">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1993">
+        <v>16</v>
+      </c>
+      <c r="B1993">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1994">
+        <v>17</v>
+      </c>
+      <c r="B1994">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1995">
+        <v>15</v>
+      </c>
+      <c r="B1995">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1996">
+        <v>2</v>
+      </c>
+      <c r="B1996">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1997">
+        <v>19</v>
+      </c>
+      <c r="B1997">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1998">
+        <v>7</v>
+      </c>
+      <c r="B1998">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1999">
+        <v>11</v>
+      </c>
+      <c r="B1999">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2000">
+        <v>3</v>
+      </c>
+      <c r="B2000">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2001">
+        <v>18</v>
+      </c>
+      <c r="B2001">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2002">
+        <v>3</v>
+      </c>
+      <c r="B2002">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2003">
+        <v>3</v>
+      </c>
+      <c r="B2003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2004">
+        <v>10</v>
+      </c>
+      <c r="B2004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2005">
+        <v>2</v>
+      </c>
+      <c r="B2005">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2006">
+        <v>9</v>
+      </c>
+      <c r="B2006">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2007">
+        <v>12</v>
+      </c>
+      <c r="B2007">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2008">
+        <v>5</v>
+      </c>
+      <c r="B2008">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2009">
+        <v>9</v>
+      </c>
+      <c r="B2009">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2010">
+        <v>15</v>
+      </c>
+      <c r="B2010">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2011">
+        <v>19</v>
+      </c>
+      <c r="B2011">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2012">
+        <v>4</v>
+      </c>
+      <c r="B2012">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2013">
+        <v>2</v>
+      </c>
+      <c r="B2013">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2014">
+        <v>1</v>
+      </c>
+      <c r="B2014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2015">
+        <v>1</v>
+      </c>
+      <c r="B2015">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2016">
+        <v>8</v>
+      </c>
+      <c r="B2016">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2017">
+        <v>3</v>
+      </c>
+      <c r="B2017">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2018">
+        <v>6</v>
+      </c>
+      <c r="B2018">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2019">
+        <v>18</v>
+      </c>
+      <c r="B2019">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2020">
+        <v>5</v>
+      </c>
+      <c r="B2020">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2021">
+        <v>1</v>
+      </c>
+      <c r="B2021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2022">
+        <v>19</v>
+      </c>
+      <c r="B2022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2023">
+        <v>8</v>
+      </c>
+      <c r="B2023">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2024">
+        <v>1</v>
+      </c>
+      <c r="B2024">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2025">
+        <v>3</v>
+      </c>
+      <c r="B2025">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2026">
+        <v>12</v>
+      </c>
+      <c r="B2026">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2027">
+        <v>17</v>
+      </c>
+      <c r="B2027">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2028">
+        <v>13</v>
+      </c>
+      <c r="B2028">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2029">
+        <v>18</v>
+      </c>
+      <c r="B2029">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2030">
+        <v>13</v>
+      </c>
+      <c r="B2030">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2031">
+        <v>18</v>
+      </c>
+      <c r="B2031">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2032">
+        <v>2</v>
+      </c>
+      <c r="B2032">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2033">
+        <v>9</v>
+      </c>
+      <c r="B2033">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2034">
+        <v>5</v>
+      </c>
+      <c r="B2034">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2035">
+        <v>16</v>
+      </c>
+      <c r="B2035">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2036">
+        <v>1</v>
+      </c>
+      <c r="B2036">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2037">
+        <v>5</v>
+      </c>
+      <c r="B2037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2038">
+        <v>11</v>
+      </c>
+      <c r="B2038">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2039">
+        <v>3</v>
+      </c>
+      <c r="B2039">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2040">
+        <v>2</v>
+      </c>
+      <c r="B2040">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2041">
+        <v>20</v>
+      </c>
+      <c r="B2041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2042">
+        <v>3</v>
+      </c>
+      <c r="B2042">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2043">
+        <v>17</v>
+      </c>
+      <c r="B2043">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2044">
+        <v>5</v>
+      </c>
+      <c r="B2044">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2045">
+        <v>8</v>
+      </c>
+      <c r="B2045">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2046">
+        <v>19</v>
+      </c>
+      <c r="B2046">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2047">
+        <v>12</v>
+      </c>
+      <c r="B2047">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2048">
+        <v>12</v>
+      </c>
+      <c r="B2048">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2049">
+        <v>5</v>
+      </c>
+      <c r="B2049">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2050">
+        <v>19</v>
+      </c>
+      <c r="B2050">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2051">
+        <v>9</v>
+      </c>
+      <c r="B2051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2052">
+        <v>10</v>
+      </c>
+      <c r="B2052">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2053">
+        <v>7</v>
+      </c>
+      <c r="B2053">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2054">
+        <v>7</v>
+      </c>
+      <c r="B2054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2055">
+        <v>20</v>
+      </c>
+      <c r="B2055">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2056">
+        <v>1</v>
+      </c>
+      <c r="B2056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2057">
+        <v>9</v>
+      </c>
+      <c r="B2057">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2058">
+        <v>18</v>
+      </c>
+      <c r="B2058">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2059">
+        <v>2</v>
+      </c>
+      <c r="B2059">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2060">
+        <v>1</v>
+      </c>
+      <c r="B2060">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2061">
+        <v>18</v>
+      </c>
+      <c r="B2061">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2062">
+        <v>9</v>
+      </c>
+      <c r="B2062">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2063">
+        <v>13</v>
+      </c>
+      <c r="B2063">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2064">
+        <v>3</v>
+      </c>
+      <c r="B2064">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2065">
+        <v>15</v>
+      </c>
+      <c r="B2065">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2066">
+        <v>18</v>
+      </c>
+      <c r="B2066">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2067">
+        <v>7</v>
+      </c>
+      <c r="B2067">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2068">
+        <v>16</v>
+      </c>
+      <c r="B2068">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2069">
+        <v>1</v>
+      </c>
+      <c r="B2069">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2070">
+        <v>11</v>
+      </c>
+      <c r="B2070">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2071">
+        <v>12</v>
+      </c>
+      <c r="B2071">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2072">
+        <v>16</v>
+      </c>
+      <c r="B2072">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2073">
+        <v>19</v>
+      </c>
+      <c r="B2073">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2074">
+        <v>17</v>
+      </c>
+      <c r="B2074">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2075">
+        <v>18</v>
+      </c>
+      <c r="B2075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2076">
+        <v>2</v>
+      </c>
+      <c r="B2076">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2077">
+        <v>3</v>
+      </c>
+      <c r="B2077">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2078">
+        <v>4</v>
+      </c>
+      <c r="B2078">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2079">
+        <v>12</v>
+      </c>
+      <c r="B2079">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2080">
+        <v>13</v>
+      </c>
+      <c r="B2080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2081">
+        <v>6</v>
+      </c>
+      <c r="B2081">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2082">
+        <v>3</v>
+      </c>
+      <c r="B2082">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2083">
+        <v>6</v>
+      </c>
+      <c r="B2083">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2084">
+        <v>5</v>
+      </c>
+      <c r="B2084">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2085">
+        <v>3</v>
+      </c>
+      <c r="B2085">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2086">
+        <v>15</v>
+      </c>
+      <c r="B2086">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2087">
+        <v>15</v>
+      </c>
+      <c r="B2087">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2088">
+        <v>17</v>
+      </c>
+      <c r="B2088">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2089">
+        <v>13</v>
+      </c>
+      <c r="B2089">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2090">
+        <v>4</v>
+      </c>
+      <c r="B2090">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2091">
+        <v>4</v>
+      </c>
+      <c r="B2091">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2092">
+        <v>17</v>
+      </c>
+      <c r="B2092">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2093">
+        <v>2</v>
+      </c>
+      <c r="B2093">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2094">
+        <v>17</v>
+      </c>
+      <c r="B2094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2095">
+        <v>19</v>
+      </c>
+      <c r="B2095">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2096">
+        <v>8</v>
+      </c>
+      <c r="B2096">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2097">
+        <v>11</v>
+      </c>
+      <c r="B2097">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2098">
+        <v>16</v>
+      </c>
+      <c r="B2098">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2099">
+        <v>14</v>
+      </c>
+      <c r="B2099">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2100">
+        <v>15</v>
+      </c>
+      <c r="B2100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2101">
+        <v>9</v>
+      </c>
+      <c r="B2101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2102">
+        <v>1</v>
+      </c>
+      <c r="B2102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2103">
+        <v>1</v>
+      </c>
+      <c r="B2103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2104">
+        <v>15</v>
+      </c>
+      <c r="B2104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2105">
+        <v>10</v>
+      </c>
+      <c r="B2105">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2106">
+        <v>17</v>
+      </c>
+      <c r="B2106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2107">
+        <v>2</v>
+      </c>
+      <c r="B2107">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2108">
+        <v>3</v>
+      </c>
+      <c r="B2108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2109">
+        <v>18</v>
+      </c>
+      <c r="B2109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2110">
+        <v>9</v>
+      </c>
+      <c r="B2110">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2111">
+        <v>1</v>
+      </c>
+      <c r="B2111">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2112">
+        <v>2</v>
+      </c>
+      <c r="B2112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2113">
+        <v>3</v>
+      </c>
+      <c r="B2113">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2114">
+        <v>6</v>
+      </c>
+      <c r="B2114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2115">
+        <v>2</v>
+      </c>
+      <c r="B2115">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2116">
+        <v>8</v>
+      </c>
+      <c r="B2116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2117">
+        <v>1</v>
+      </c>
+      <c r="B2117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2118">
+        <v>3</v>
+      </c>
+      <c r="B2118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2119">
+        <v>3</v>
+      </c>
+      <c r="B2119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2120">
+        <v>11</v>
+      </c>
+      <c r="B2120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2121">
+        <v>10</v>
+      </c>
+      <c r="B2121">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2122">
+        <v>9</v>
+      </c>
+      <c r="B2122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2123">
+        <v>9</v>
+      </c>
+      <c r="B2123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2124">
+        <v>12</v>
+      </c>
+      <c r="B2124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2125">
+        <v>19</v>
+      </c>
+      <c r="B2125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2126">
+        <v>7</v>
+      </c>
+      <c r="B2126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2127">
+        <v>9</v>
+      </c>
+      <c r="B2127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2128">
+        <v>6</v>
+      </c>
+      <c r="B2128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2129">
+        <v>12</v>
+      </c>
+      <c r="B2129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2130">
+        <v>4</v>
+      </c>
+      <c r="B2130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2131">
+        <v>14</v>
+      </c>
+      <c r="B2131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2132">
+        <v>12</v>
+      </c>
+      <c r="B2132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2133">
+        <v>14</v>
+      </c>
+      <c r="B2133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2134">
+        <v>18</v>
+      </c>
+      <c r="B2134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2135">
+        <v>18</v>
+      </c>
+      <c r="B2135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2136">
+        <v>3</v>
+      </c>
+      <c r="B2136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2137">
+        <v>15</v>
+      </c>
+      <c r="B2137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2138">
+        <v>18</v>
+      </c>
+      <c r="B2138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2139">
+        <v>15</v>
+      </c>
+      <c r="B2139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2140">
+        <v>16</v>
+      </c>
+      <c r="B2140">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2141">
+        <v>2</v>
+      </c>
+      <c r="B2141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2142">
+        <v>18</v>
+      </c>
+      <c r="B2142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2143">
+        <v>8</v>
+      </c>
+      <c r="B2143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2144">
+        <v>2</v>
+      </c>
+      <c r="B2144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2145">
+        <v>8</v>
+      </c>
+      <c r="B2145">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2146">
+        <v>17</v>
+      </c>
+      <c r="B2146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2147">
+        <v>10</v>
+      </c>
+      <c r="B2147">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2148">
+        <v>15</v>
+      </c>
+      <c r="B2148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2149">
+        <v>20</v>
+      </c>
+      <c r="B2149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2150">
+        <v>3</v>
+      </c>
+      <c r="B2150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2151">
+        <v>16</v>
+      </c>
+      <c r="B2151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2152">
+        <v>3</v>
+      </c>
+      <c r="B2152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2153">
+        <v>5</v>
+      </c>
+      <c r="B2153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2154">
+        <v>2</v>
+      </c>
+      <c r="B2154">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2155">
+        <v>1</v>
+      </c>
+      <c r="B2155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2156">
+        <v>10</v>
+      </c>
+      <c r="B2156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2157">
+        <v>2</v>
+      </c>
+      <c r="B2157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2158">
+        <v>1</v>
+      </c>
+      <c r="B2158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2159">
+        <v>18</v>
+      </c>
+      <c r="B2159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2160">
+        <v>14</v>
+      </c>
+      <c r="B2160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2161">
+        <v>14</v>
+      </c>
+      <c r="B2161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2162">
+        <v>1</v>
+      </c>
+      <c r="B2162">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2163">
+        <v>12</v>
+      </c>
+      <c r="B2163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2164">
+        <v>8</v>
+      </c>
+      <c r="B2164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2165">
+        <v>11</v>
+      </c>
+      <c r="B2165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2166">
+        <v>11</v>
+      </c>
+      <c r="B2166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2167">
+        <v>9</v>
+      </c>
+      <c r="B2167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2168">
+        <v>13</v>
+      </c>
+      <c r="B2168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2169">
+        <v>7</v>
+      </c>
+      <c r="B2169">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2170">
+        <v>7</v>
+      </c>
+      <c r="B2170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2171">
+        <v>11</v>
+      </c>
+      <c r="B2171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2172">
+        <v>8</v>
+      </c>
+      <c r="B2172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2173">
+        <v>1</v>
+      </c>
+      <c r="B2173">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2174">
+        <v>6</v>
+      </c>
+      <c r="B2174">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2175">
+        <v>2</v>
+      </c>
+      <c r="B2175">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2176">
+        <v>4</v>
+      </c>
+      <c r="B2176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2177">
+        <v>3</v>
+      </c>
+      <c r="B2177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2178">
+        <v>4</v>
+      </c>
+      <c r="B2178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2179">
+        <v>1</v>
+      </c>
+      <c r="B2179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2180">
+        <v>6</v>
+      </c>
+      <c r="B2180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2181">
+        <v>2</v>
+      </c>
+      <c r="B2181">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2182">
+        <v>13</v>
+      </c>
+      <c r="B2182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2183">
+        <v>8</v>
+      </c>
+      <c r="B2183">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2184">
+        <v>9</v>
+      </c>
+      <c r="B2184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2185">
+        <v>12</v>
+      </c>
+      <c r="B2185">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2186">
+        <v>19</v>
+      </c>
+      <c r="B2186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2187">
+        <v>8</v>
+      </c>
+      <c r="B2187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2188">
+        <v>8</v>
+      </c>
+      <c r="B2188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2189">
+        <v>1</v>
+      </c>
+      <c r="B2189">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2190">
+        <v>12</v>
+      </c>
+      <c r="B2190">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2191">
+        <v>3</v>
+      </c>
+      <c r="B2191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2192">
+        <v>9</v>
+      </c>
+      <c r="B2192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2193">
+        <v>14</v>
+      </c>
+      <c r="B2193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2194">
+        <v>8</v>
+      </c>
+      <c r="B2194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2195">
+        <v>17</v>
+      </c>
+      <c r="B2195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2196">
+        <v>2</v>
+      </c>
+      <c r="B2196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2197">
+        <v>1</v>
+      </c>
+      <c r="B2197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2198">
+        <v>13</v>
+      </c>
+      <c r="B2198">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2199">
+        <v>12</v>
+      </c>
+      <c r="B2199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2200">
+        <v>20</v>
+      </c>
+      <c r="B2200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2201">
+        <v>3</v>
+      </c>
+      <c r="B2201">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2202">
+        <v>5</v>
+      </c>
+      <c r="B2202">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2203">
+        <v>16</v>
+      </c>
+      <c r="B2203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2204">
+        <v>9</v>
+      </c>
+      <c r="B2204">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2205">
+        <v>3</v>
+      </c>
+      <c r="B2205">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2206">
+        <v>8</v>
+      </c>
+      <c r="B2206">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2207">
+        <v>12</v>
+      </c>
+      <c r="B2207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2208">
+        <v>5</v>
+      </c>
+      <c r="B2208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2209">
+        <v>9</v>
+      </c>
+      <c r="B2209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2210">
+        <v>8</v>
+      </c>
+      <c r="B2210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2211">
+        <v>7</v>
+      </c>
+      <c r="B2211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2212">
+        <v>7</v>
+      </c>
+      <c r="B2212">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2213">
+        <v>19</v>
+      </c>
+      <c r="B2213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2214">
+        <v>3</v>
+      </c>
+      <c r="B2214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2215">
+        <v>12</v>
+      </c>
+      <c r="B2215">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2216">
+        <v>11</v>
+      </c>
+      <c r="B2216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2217">
+        <v>13</v>
+      </c>
+      <c r="B2217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2218">
+        <v>1</v>
+      </c>
+      <c r="B2218">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2219">
+        <v>1</v>
+      </c>
+      <c r="B2219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2220">
+        <v>12</v>
+      </c>
+      <c r="B2220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2221">
+        <v>18</v>
+      </c>
+      <c r="B2221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2222">
+        <v>1</v>
+      </c>
+      <c r="B2222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2223">
+        <v>8</v>
+      </c>
+      <c r="B2223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2224">
+        <v>18</v>
+      </c>
+      <c r="B2224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2225">
+        <v>6</v>
+      </c>
+      <c r="B2225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2226">
+        <v>14</v>
+      </c>
+      <c r="B2226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2227">
+        <v>3</v>
+      </c>
+      <c r="B2227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2228">
+        <v>19</v>
+      </c>
+      <c r="B2228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2229">
+        <v>18</v>
+      </c>
+      <c r="B2229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2230">
+        <v>3</v>
+      </c>
+      <c r="B2230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2231">
+        <v>7</v>
+      </c>
+      <c r="B2231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2232">
+        <v>20</v>
+      </c>
+      <c r="B2232">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2233">
+        <v>20</v>
+      </c>
+      <c r="B2233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2234">
+        <v>7</v>
+      </c>
+      <c r="B2234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2235">
+        <v>2</v>
+      </c>
+      <c r="B2235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2236">
+        <v>13</v>
+      </c>
+      <c r="B2236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2237">
+        <v>12</v>
+      </c>
+      <c r="B2237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2238">
+        <v>17</v>
+      </c>
+      <c r="B2238">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2239">
+        <v>2</v>
+      </c>
+      <c r="B2239">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2240">
+        <v>14</v>
+      </c>
+      <c r="B2240">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2241">
+        <v>11</v>
+      </c>
+      <c r="B2241">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2242">
+        <v>12</v>
+      </c>
+      <c r="B2242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2243">
+        <v>2</v>
+      </c>
+      <c r="B2243">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2244">
+        <v>12</v>
+      </c>
+      <c r="B2244">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2245">
+        <v>14</v>
+      </c>
+      <c r="B2245">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2246">
+        <v>9</v>
+      </c>
+      <c r="B2246">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2247">
+        <v>4</v>
+      </c>
+      <c r="B2247">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2248">
+        <v>1</v>
+      </c>
+      <c r="B2248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2249">
+        <v>14</v>
+      </c>
+      <c r="B2249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2250">
+        <v>2</v>
+      </c>
+      <c r="B2250">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2251">
+        <v>14</v>
+      </c>
+      <c r="B2251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2252">
+        <v>6</v>
+      </c>
+      <c r="B2252">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2253">
+        <v>6</v>
+      </c>
+      <c r="B2253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2254">
+        <v>1</v>
+      </c>
+      <c r="B2254">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2255">
+        <v>16</v>
+      </c>
+      <c r="B2255">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2256">
+        <v>12</v>
+      </c>
+      <c r="B2256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2257">
+        <v>4</v>
+      </c>
+      <c r="B2257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2258">
+        <v>13</v>
+      </c>
+      <c r="B2258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2259">
+        <v>3</v>
+      </c>
+      <c r="B2259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2260">
+        <v>4</v>
+      </c>
+      <c r="B2260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2261">
+        <v>2</v>
+      </c>
+      <c r="B2261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2262">
+        <v>6</v>
+      </c>
+      <c r="B2262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2263">
+        <v>9</v>
+      </c>
+      <c r="B2263">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2264">
+        <v>20</v>
+      </c>
+      <c r="B2264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2265">
+        <v>7</v>
+      </c>
+      <c r="B2265">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2266">
+        <v>2</v>
+      </c>
+      <c r="B2266">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2267">
+        <v>4</v>
+      </c>
+      <c r="B2267">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2268">
+        <v>9</v>
+      </c>
+      <c r="B2268">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2269">
+        <v>7</v>
+      </c>
+      <c r="B2269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2270">
+        <v>2</v>
+      </c>
+      <c r="B2270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2271">
+        <v>9</v>
+      </c>
+      <c r="B2271">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2272">
+        <v>13</v>
+      </c>
+      <c r="B2272">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2273">
+        <v>12</v>
+      </c>
+      <c r="B2273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2274">
+        <v>4</v>
+      </c>
+      <c r="B2274">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2275">
+        <v>14</v>
+      </c>
+      <c r="B2275">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2276">
+        <v>19</v>
+      </c>
+      <c r="B2276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2277">
+        <v>3</v>
+      </c>
+      <c r="B2277">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2278">
+        <v>11</v>
+      </c>
+      <c r="B2278">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2279">
+        <v>2</v>
+      </c>
+      <c r="B2279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2280">
+        <v>13</v>
+      </c>
+      <c r="B2280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2281">
+        <v>1</v>
+      </c>
+      <c r="B2281">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2282">
+        <v>3</v>
+      </c>
+      <c r="B2282">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2283">
+        <v>7</v>
+      </c>
+      <c r="B2283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2284">
+        <v>19</v>
+      </c>
+      <c r="B2284">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2285">
+        <v>4</v>
+      </c>
+      <c r="B2285">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2286">
+        <v>9</v>
+      </c>
+      <c r="B2286">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2287">
+        <v>8</v>
+      </c>
+      <c r="B2287">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2288">
+        <v>15</v>
+      </c>
+      <c r="B2288">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2289">
+        <v>1</v>
+      </c>
+      <c r="B2289">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2290">
+        <v>5</v>
+      </c>
+      <c r="B2290">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2291">
+        <v>2</v>
+      </c>
+      <c r="B2291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2292">
+        <v>20</v>
+      </c>
+      <c r="B2292">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2293">
+        <v>18</v>
+      </c>
+      <c r="B2293">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2294">
+        <v>16</v>
+      </c>
+      <c r="B2294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2295">
+        <v>7</v>
+      </c>
+      <c r="B2295">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2296">
+        <v>9</v>
+      </c>
+      <c r="B2296">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2297">
+        <v>4</v>
+      </c>
+      <c r="B2297">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2298">
+        <v>3</v>
+      </c>
+      <c r="B2298">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2299">
+        <v>10</v>
+      </c>
+      <c r="B2299">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2300">
+        <v>12</v>
+      </c>
+      <c r="B2300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2301">
+        <v>7</v>
+      </c>
+      <c r="B2301">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2302">
+        <v>12</v>
+      </c>
+      <c r="B2302">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dice_test.xlsx
+++ b/Dice_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chmullens/Documents/GitHub/Dice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA89CDB-D259-344B-8518-C1DE1B3D61D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AA9A8-89A6-044E-B9E5-4E4FAC447DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{D71FB28A-5275-6641-8EEB-6B08F00334B6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Blue:</t>
   </si>
   <si>
-    <t>(Rolling on the flat wood desk, pick up and reroll after some shaking, avoid bumping into things near end of roll)</t>
+    <t>(Rolling on the flat wood desk, pick up and reroll after some shaking, avoid bumping into each other or objects near end of roll)</t>
   </si>
 </sst>
 </file>
@@ -394,11 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0194933F-D8D3-DD40-9924-A4C1D50508BE}">
-  <dimension ref="A1:F2302"/>
+  <dimension ref="A1:F2402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2303" sqref="A2303"/>
+      <pane ySplit="1" topLeftCell="A2370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2403" sqref="A2403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18974,6 +18974,806 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2303">
+        <v>6</v>
+      </c>
+      <c r="B2303">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2304">
+        <v>2</v>
+      </c>
+      <c r="B2304">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2305">
+        <v>2</v>
+      </c>
+      <c r="B2305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2306">
+        <v>3</v>
+      </c>
+      <c r="B2306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2307">
+        <v>3</v>
+      </c>
+      <c r="B2307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2308">
+        <v>18</v>
+      </c>
+      <c r="B2308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2309">
+        <v>3</v>
+      </c>
+      <c r="B2309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2310">
+        <v>12</v>
+      </c>
+      <c r="B2310">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2311">
+        <v>9</v>
+      </c>
+      <c r="B2311">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2312">
+        <v>2</v>
+      </c>
+      <c r="B2312">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2313">
+        <v>11</v>
+      </c>
+      <c r="B2313">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2314">
+        <v>9</v>
+      </c>
+      <c r="B2314">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2315">
+        <v>19</v>
+      </c>
+      <c r="B2315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2316">
+        <v>4</v>
+      </c>
+      <c r="B2316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2317">
+        <v>17</v>
+      </c>
+      <c r="B2317">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2318">
+        <v>6</v>
+      </c>
+      <c r="B2318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2319">
+        <v>12</v>
+      </c>
+      <c r="B2319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2320">
+        <v>8</v>
+      </c>
+      <c r="B2320">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2321">
+        <v>3</v>
+      </c>
+      <c r="B2321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2322">
+        <v>1</v>
+      </c>
+      <c r="B2322">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2323">
+        <v>6</v>
+      </c>
+      <c r="B2323">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2324">
+        <v>3</v>
+      </c>
+      <c r="B2324">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2325">
+        <v>3</v>
+      </c>
+      <c r="B2325">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2326">
+        <v>17</v>
+      </c>
+      <c r="B2326">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2327">
+        <v>4</v>
+      </c>
+      <c r="B2327">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2328">
+        <v>10</v>
+      </c>
+      <c r="B2328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2329">
+        <v>2</v>
+      </c>
+      <c r="B2329">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2330">
+        <v>10</v>
+      </c>
+      <c r="B2330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2331">
+        <v>10</v>
+      </c>
+      <c r="B2331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2332">
+        <v>18</v>
+      </c>
+      <c r="B2332">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2333">
+        <v>7</v>
+      </c>
+      <c r="B2333">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2334">
+        <v>9</v>
+      </c>
+      <c r="B2334">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2335">
+        <v>1</v>
+      </c>
+      <c r="B2335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2336">
+        <v>4</v>
+      </c>
+      <c r="B2336">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2337">
+        <v>18</v>
+      </c>
+      <c r="B2337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2338">
+        <v>3</v>
+      </c>
+      <c r="B2338">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2339">
+        <v>13</v>
+      </c>
+      <c r="B2339">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2340">
+        <v>12</v>
+      </c>
+      <c r="B2340">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2341">
+        <v>9</v>
+      </c>
+      <c r="B2341">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2342">
+        <v>13</v>
+      </c>
+      <c r="B2342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2343">
+        <v>14</v>
+      </c>
+      <c r="B2343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2344">
+        <v>17</v>
+      </c>
+      <c r="B2344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2345">
+        <v>13</v>
+      </c>
+      <c r="B2345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2346">
+        <v>11</v>
+      </c>
+      <c r="B2346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2347">
+        <v>1</v>
+      </c>
+      <c r="B2347">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2348">
+        <v>19</v>
+      </c>
+      <c r="B2348">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2349">
+        <v>6</v>
+      </c>
+      <c r="B2349">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2350">
+        <v>3</v>
+      </c>
+      <c r="B2350">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2351">
+        <v>2</v>
+      </c>
+      <c r="B2351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2352">
+        <v>18</v>
+      </c>
+      <c r="B2352">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2353">
+        <v>17</v>
+      </c>
+      <c r="B2353">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2354">
+        <v>17</v>
+      </c>
+      <c r="B2354">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2355">
+        <v>20</v>
+      </c>
+      <c r="B2355">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2356">
+        <v>9</v>
+      </c>
+      <c r="B2356">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2357">
+        <v>3</v>
+      </c>
+      <c r="B2357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2358">
+        <v>13</v>
+      </c>
+      <c r="B2358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2359">
+        <v>18</v>
+      </c>
+      <c r="B2359">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2360">
+        <v>10</v>
+      </c>
+      <c r="B2360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2361">
+        <v>13</v>
+      </c>
+      <c r="B2361">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2362">
+        <v>7</v>
+      </c>
+      <c r="B2362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2363">
+        <v>16</v>
+      </c>
+      <c r="B2363">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2364">
+        <v>6</v>
+      </c>
+      <c r="B2364">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2365">
+        <v>12</v>
+      </c>
+      <c r="B2365">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2366">
+        <v>12</v>
+      </c>
+      <c r="B2366">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2367">
+        <v>11</v>
+      </c>
+      <c r="B2367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2368">
+        <v>10</v>
+      </c>
+      <c r="B2368">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2369">
+        <v>2</v>
+      </c>
+      <c r="B2369">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2370">
+        <v>4</v>
+      </c>
+      <c r="B2370">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2371">
+        <v>6</v>
+      </c>
+      <c r="B2371">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2372">
+        <v>20</v>
+      </c>
+      <c r="B2372">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2373">
+        <v>18</v>
+      </c>
+      <c r="B2373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2374">
+        <v>13</v>
+      </c>
+      <c r="B2374">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2375">
+        <v>3</v>
+      </c>
+      <c r="B2375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2376">
+        <v>12</v>
+      </c>
+      <c r="B2376">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2377">
+        <v>12</v>
+      </c>
+      <c r="B2377">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2378">
+        <v>15</v>
+      </c>
+      <c r="B2378">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2379">
+        <v>13</v>
+      </c>
+      <c r="B2379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2380">
+        <v>7</v>
+      </c>
+      <c r="B2380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2381">
+        <v>9</v>
+      </c>
+      <c r="B2381">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2382">
+        <v>1</v>
+      </c>
+      <c r="B2382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2383">
+        <v>4</v>
+      </c>
+      <c r="B2383">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2384">
+        <v>9</v>
+      </c>
+      <c r="B2384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2385">
+        <v>15</v>
+      </c>
+      <c r="B2385">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2386">
+        <v>19</v>
+      </c>
+      <c r="B2386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2387">
+        <v>2</v>
+      </c>
+      <c r="B2387">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2388">
+        <v>10</v>
+      </c>
+      <c r="B2388">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2389">
+        <v>3</v>
+      </c>
+      <c r="B2389">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2390">
+        <v>11</v>
+      </c>
+      <c r="B2390">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2391">
+        <v>4</v>
+      </c>
+      <c r="B2391">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2392">
+        <v>3</v>
+      </c>
+      <c r="B2392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2393">
+        <v>11</v>
+      </c>
+      <c r="B2393">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2394">
+        <v>15</v>
+      </c>
+      <c r="B2394">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2395">
+        <v>10</v>
+      </c>
+      <c r="B2395">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2396">
+        <v>11</v>
+      </c>
+      <c r="B2396">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2397">
+        <v>16</v>
+      </c>
+      <c r="B2397">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2398">
+        <v>15</v>
+      </c>
+      <c r="B2398">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2399">
+        <v>18</v>
+      </c>
+      <c r="B2399">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2400">
+        <v>14</v>
+      </c>
+      <c r="B2400">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2401">
+        <v>14</v>
+      </c>
+      <c r="B2401">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2402">
+        <v>2</v>
+      </c>
+      <c r="B2402">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dice_test.xlsx
+++ b/Dice_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chmullens/Documents/GitHub/Dice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AA9A8-89A6-044E-B9E5-4E4FAC447DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9F9231-3002-0A45-95B4-66FFA2A2DF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{D71FB28A-5275-6641-8EEB-6B08F00334B6}"/>
   </bookViews>
@@ -394,11 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0194933F-D8D3-DD40-9924-A4C1D50508BE}">
-  <dimension ref="A1:F2402"/>
+  <dimension ref="A1:F2704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2403" sqref="A2403"/>
+      <pane ySplit="1" topLeftCell="A2672" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2705" sqref="A2705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19774,6 +19774,2422 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2403">
+        <v>10</v>
+      </c>
+      <c r="B2403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2404">
+        <v>14</v>
+      </c>
+      <c r="B2404">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2405">
+        <v>7</v>
+      </c>
+      <c r="B2405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2406">
+        <v>1</v>
+      </c>
+      <c r="B2406">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2407">
+        <v>7</v>
+      </c>
+      <c r="B2407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2408">
+        <v>12</v>
+      </c>
+      <c r="B2408">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2409">
+        <v>11</v>
+      </c>
+      <c r="B2409">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2410">
+        <v>10</v>
+      </c>
+      <c r="B2410">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2411">
+        <v>18</v>
+      </c>
+      <c r="B2411">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2412">
+        <v>4</v>
+      </c>
+      <c r="B2412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2413">
+        <v>19</v>
+      </c>
+      <c r="B2413">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2414">
+        <v>4</v>
+      </c>
+      <c r="B2414">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2415">
+        <v>15</v>
+      </c>
+      <c r="B2415">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2416">
+        <v>5</v>
+      </c>
+      <c r="B2416">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2417">
+        <v>1</v>
+      </c>
+      <c r="B2417">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2418">
+        <v>17</v>
+      </c>
+      <c r="B2418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2419">
+        <v>6</v>
+      </c>
+      <c r="B2419">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2420">
+        <v>17</v>
+      </c>
+      <c r="B2420">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2421">
+        <v>2</v>
+      </c>
+      <c r="B2421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2422">
+        <v>7</v>
+      </c>
+      <c r="B2422">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2423">
+        <v>8</v>
+      </c>
+      <c r="B2423">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2424">
+        <v>19</v>
+      </c>
+      <c r="B2424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2425">
+        <v>3</v>
+      </c>
+      <c r="B2425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2426">
+        <v>12</v>
+      </c>
+      <c r="B2426">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2427">
+        <v>1</v>
+      </c>
+      <c r="B2427">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2428">
+        <v>3</v>
+      </c>
+      <c r="B2428">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2429">
+        <v>11</v>
+      </c>
+      <c r="B2429">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2430">
+        <v>6</v>
+      </c>
+      <c r="B2430">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2431">
+        <v>15</v>
+      </c>
+      <c r="B2431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2432">
+        <v>20</v>
+      </c>
+      <c r="B2432">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2433">
+        <v>3</v>
+      </c>
+      <c r="B2433">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2434">
+        <v>1</v>
+      </c>
+      <c r="B2434">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2435">
+        <v>16</v>
+      </c>
+      <c r="B2435">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2436">
+        <v>19</v>
+      </c>
+      <c r="B2436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2437">
+        <v>6</v>
+      </c>
+      <c r="B2437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2438">
+        <v>5</v>
+      </c>
+      <c r="B2438">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2439">
+        <v>13</v>
+      </c>
+      <c r="B2439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2440">
+        <v>8</v>
+      </c>
+      <c r="B2440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2441">
+        <v>1</v>
+      </c>
+      <c r="B2441">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2442">
+        <v>16</v>
+      </c>
+      <c r="B2442">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2443">
+        <v>12</v>
+      </c>
+      <c r="B2443">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2444">
+        <v>12</v>
+      </c>
+      <c r="B2444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2445">
+        <v>11</v>
+      </c>
+      <c r="B2445">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2446">
+        <v>9</v>
+      </c>
+      <c r="B2446">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2447">
+        <v>2</v>
+      </c>
+      <c r="B2447">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2448">
+        <v>9</v>
+      </c>
+      <c r="B2448">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2449">
+        <v>2</v>
+      </c>
+      <c r="B2449">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2450">
+        <v>12</v>
+      </c>
+      <c r="B2450">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2451">
+        <v>7</v>
+      </c>
+      <c r="B2451">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2452">
+        <v>7</v>
+      </c>
+      <c r="B2452">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2453">
+        <v>6</v>
+      </c>
+      <c r="B2453">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2454">
+        <v>20</v>
+      </c>
+      <c r="B2454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2455">
+        <v>9</v>
+      </c>
+      <c r="B2455">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2456">
+        <v>9</v>
+      </c>
+      <c r="B2456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2457">
+        <v>17</v>
+      </c>
+      <c r="B2457">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2458">
+        <v>13</v>
+      </c>
+      <c r="B2458">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2459">
+        <v>13</v>
+      </c>
+      <c r="B2459">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2460">
+        <v>11</v>
+      </c>
+      <c r="B2460">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2461">
+        <v>11</v>
+      </c>
+      <c r="B2461">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2462">
+        <v>13</v>
+      </c>
+      <c r="B2462">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2463">
+        <v>2</v>
+      </c>
+      <c r="B2463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2464">
+        <v>11</v>
+      </c>
+      <c r="B2464">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2465">
+        <v>3</v>
+      </c>
+      <c r="B2465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2466">
+        <v>6</v>
+      </c>
+      <c r="B2466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2467">
+        <v>6</v>
+      </c>
+      <c r="B2467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2468">
+        <v>3</v>
+      </c>
+      <c r="B2468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2469">
+        <v>19</v>
+      </c>
+      <c r="B2469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2470">
+        <v>1</v>
+      </c>
+      <c r="B2470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2471">
+        <v>15</v>
+      </c>
+      <c r="B2471">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2472">
+        <v>19</v>
+      </c>
+      <c r="B2472">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2473">
+        <v>4</v>
+      </c>
+      <c r="B2473">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2474">
+        <v>10</v>
+      </c>
+      <c r="B2474">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2475">
+        <v>7</v>
+      </c>
+      <c r="B2475">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2476">
+        <v>15</v>
+      </c>
+      <c r="B2476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2477">
+        <v>16</v>
+      </c>
+      <c r="B2477">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2478">
+        <v>8</v>
+      </c>
+      <c r="B2478">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2479">
+        <v>20</v>
+      </c>
+      <c r="B2479">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2480">
+        <v>2</v>
+      </c>
+      <c r="B2480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2481">
+        <v>12</v>
+      </c>
+      <c r="B2481">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2482">
+        <v>15</v>
+      </c>
+      <c r="B2482">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2483">
+        <v>2</v>
+      </c>
+      <c r="B2483">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2484">
+        <v>9</v>
+      </c>
+      <c r="B2484">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2485">
+        <v>11</v>
+      </c>
+      <c r="B2485">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2486">
+        <v>17</v>
+      </c>
+      <c r="B2486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2487">
+        <v>9</v>
+      </c>
+      <c r="B2487">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2488">
+        <v>19</v>
+      </c>
+      <c r="B2488">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2489">
+        <v>17</v>
+      </c>
+      <c r="B2489">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2490">
+        <v>3</v>
+      </c>
+      <c r="B2490">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2491">
+        <v>5</v>
+      </c>
+      <c r="B2491">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2492">
+        <v>19</v>
+      </c>
+      <c r="B2492">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2493">
+        <v>18</v>
+      </c>
+      <c r="B2493">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2494">
+        <v>20</v>
+      </c>
+      <c r="B2494">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2495">
+        <v>9</v>
+      </c>
+      <c r="B2495">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2496">
+        <v>13</v>
+      </c>
+      <c r="B2496">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2497">
+        <v>15</v>
+      </c>
+      <c r="B2497">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2498">
+        <v>5</v>
+      </c>
+      <c r="B2498">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2499">
+        <v>14</v>
+      </c>
+      <c r="B2499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2500">
+        <v>8</v>
+      </c>
+      <c r="B2500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2501">
+        <v>5</v>
+      </c>
+      <c r="B2501">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2502">
+        <v>4</v>
+      </c>
+      <c r="B2502">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2503">
+        <v>10</v>
+      </c>
+      <c r="B2503">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2504">
+        <v>4</v>
+      </c>
+      <c r="B2504">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2505">
+        <v>3</v>
+      </c>
+      <c r="B2505">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2506">
+        <v>13</v>
+      </c>
+      <c r="B2506">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2507">
+        <v>13</v>
+      </c>
+      <c r="B2507">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2508">
+        <v>2</v>
+      </c>
+      <c r="B2508">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2509">
+        <v>18</v>
+      </c>
+      <c r="B2509">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2510">
+        <v>19</v>
+      </c>
+      <c r="B2510">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2511">
+        <v>3</v>
+      </c>
+      <c r="B2511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2512">
+        <v>8</v>
+      </c>
+      <c r="B2512">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2513">
+        <v>19</v>
+      </c>
+      <c r="B2513">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2514">
+        <v>19</v>
+      </c>
+      <c r="B2514">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2515">
+        <v>14</v>
+      </c>
+      <c r="B2515">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2516">
+        <v>7</v>
+      </c>
+      <c r="B2516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2517">
+        <v>3</v>
+      </c>
+      <c r="B2517">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2518">
+        <v>11</v>
+      </c>
+      <c r="B2518">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2519">
+        <v>16</v>
+      </c>
+      <c r="B2519">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2520">
+        <v>17</v>
+      </c>
+      <c r="B2520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2521">
+        <v>12</v>
+      </c>
+      <c r="B2521">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2522">
+        <v>8</v>
+      </c>
+      <c r="B2522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2523">
+        <v>9</v>
+      </c>
+      <c r="B2523">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2524">
+        <v>11</v>
+      </c>
+      <c r="B2524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2525">
+        <v>3</v>
+      </c>
+      <c r="B2525">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2526">
+        <v>7</v>
+      </c>
+      <c r="B2526">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2527">
+        <v>9</v>
+      </c>
+      <c r="B2527">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2528">
+        <v>7</v>
+      </c>
+      <c r="B2528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2529">
+        <v>19</v>
+      </c>
+      <c r="B2529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2530">
+        <v>11</v>
+      </c>
+      <c r="B2530">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2531">
+        <v>13</v>
+      </c>
+      <c r="B2531">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2532">
+        <v>20</v>
+      </c>
+      <c r="B2532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2533">
+        <v>16</v>
+      </c>
+      <c r="B2533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2534">
+        <v>14</v>
+      </c>
+      <c r="B2534">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2535">
+        <v>11</v>
+      </c>
+      <c r="B2535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2536">
+        <v>5</v>
+      </c>
+      <c r="B2536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2537">
+        <v>11</v>
+      </c>
+      <c r="B2537">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2538">
+        <v>11</v>
+      </c>
+      <c r="B2538">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2539">
+        <v>4</v>
+      </c>
+      <c r="B2539">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2540">
+        <v>17</v>
+      </c>
+      <c r="B2540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2541">
+        <v>20</v>
+      </c>
+      <c r="B2541">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2542">
+        <v>11</v>
+      </c>
+      <c r="B2542">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2543">
+        <v>16</v>
+      </c>
+      <c r="B2543">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2544">
+        <v>14</v>
+      </c>
+      <c r="B2544">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2545">
+        <v>3</v>
+      </c>
+      <c r="B2545">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2546">
+        <v>1</v>
+      </c>
+      <c r="B2546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2547">
+        <v>2</v>
+      </c>
+      <c r="B2547">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2548">
+        <v>15</v>
+      </c>
+      <c r="B2548">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2549">
+        <v>19</v>
+      </c>
+      <c r="B2549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2550">
+        <v>18</v>
+      </c>
+      <c r="B2550">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2551">
+        <v>3</v>
+      </c>
+      <c r="B2551">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2552">
+        <v>19</v>
+      </c>
+      <c r="B2552">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2553">
+        <v>16</v>
+      </c>
+      <c r="B2553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2554">
+        <v>20</v>
+      </c>
+      <c r="B2554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2555">
+        <v>5</v>
+      </c>
+      <c r="B2555">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2556">
+        <v>19</v>
+      </c>
+      <c r="B2556">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2557">
+        <v>12</v>
+      </c>
+      <c r="B2557">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2558">
+        <v>6</v>
+      </c>
+      <c r="B2558">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2559">
+        <v>2</v>
+      </c>
+      <c r="B2559">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2560">
+        <v>19</v>
+      </c>
+      <c r="B2560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2561">
+        <v>6</v>
+      </c>
+      <c r="B2561">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2562">
+        <v>8</v>
+      </c>
+      <c r="B2562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2563">
+        <v>12</v>
+      </c>
+      <c r="B2563">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2564">
+        <v>15</v>
+      </c>
+      <c r="B2564">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2565">
+        <v>20</v>
+      </c>
+      <c r="B2565">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2566">
+        <v>1</v>
+      </c>
+      <c r="B2566">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2567">
+        <v>16</v>
+      </c>
+      <c r="B2567">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2568">
+        <v>14</v>
+      </c>
+      <c r="B2568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2569">
+        <v>3</v>
+      </c>
+      <c r="B2569">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2570">
+        <v>12</v>
+      </c>
+      <c r="B2570">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2571">
+        <v>12</v>
+      </c>
+      <c r="B2571">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2572">
+        <v>17</v>
+      </c>
+      <c r="B2572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2573">
+        <v>7</v>
+      </c>
+      <c r="B2573">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2574">
+        <v>13</v>
+      </c>
+      <c r="B2574">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2575">
+        <v>10</v>
+      </c>
+      <c r="B2575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2576">
+        <v>12</v>
+      </c>
+      <c r="B2576">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2577">
+        <v>7</v>
+      </c>
+      <c r="B2577">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2578">
+        <v>19</v>
+      </c>
+      <c r="B2578">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2579">
+        <v>2</v>
+      </c>
+      <c r="B2579">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2580">
+        <v>5</v>
+      </c>
+      <c r="B2580">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2581">
+        <v>12</v>
+      </c>
+      <c r="B2581">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2582">
+        <v>5</v>
+      </c>
+      <c r="B2582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2583">
+        <v>8</v>
+      </c>
+      <c r="B2583">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2584">
+        <v>3</v>
+      </c>
+      <c r="B2584">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2585">
+        <v>19</v>
+      </c>
+      <c r="B2585">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2586">
+        <v>1</v>
+      </c>
+      <c r="B2586">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2587">
+        <v>12</v>
+      </c>
+      <c r="B2587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2588">
+        <v>1</v>
+      </c>
+      <c r="B2588">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2589">
+        <v>4</v>
+      </c>
+      <c r="B2589">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2590">
+        <v>3</v>
+      </c>
+      <c r="B2590">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2591">
+        <v>7</v>
+      </c>
+      <c r="B2591">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2592">
+        <v>13</v>
+      </c>
+      <c r="B2592">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2593">
+        <v>14</v>
+      </c>
+      <c r="B2593">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2594">
+        <v>13</v>
+      </c>
+      <c r="B2594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2595">
+        <v>7</v>
+      </c>
+      <c r="B2595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2596">
+        <v>17</v>
+      </c>
+      <c r="B2596">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2597">
+        <v>10</v>
+      </c>
+      <c r="B2597">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2598">
+        <v>13</v>
+      </c>
+      <c r="B2598">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2599">
+        <v>14</v>
+      </c>
+      <c r="B2599">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2600">
+        <v>12</v>
+      </c>
+      <c r="B2600">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2601">
+        <v>5</v>
+      </c>
+      <c r="B2601">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2602">
+        <v>12</v>
+      </c>
+      <c r="B2602">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2603">
+        <v>13</v>
+      </c>
+      <c r="B2603">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2604">
+        <v>5</v>
+      </c>
+      <c r="B2604">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2605">
+        <v>7</v>
+      </c>
+      <c r="B2605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2606">
+        <v>14</v>
+      </c>
+      <c r="B2606">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2607">
+        <v>17</v>
+      </c>
+      <c r="B2607">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2608">
+        <v>15</v>
+      </c>
+      <c r="B2608">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2609">
+        <v>16</v>
+      </c>
+      <c r="B2609">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2610">
+        <v>13</v>
+      </c>
+      <c r="B2610">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2611">
+        <v>11</v>
+      </c>
+      <c r="B2611">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2612">
+        <v>10</v>
+      </c>
+      <c r="B2612">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2613">
+        <v>3</v>
+      </c>
+      <c r="B2613">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2614">
+        <v>7</v>
+      </c>
+      <c r="B2614">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2615">
+        <v>16</v>
+      </c>
+      <c r="B2615">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2616">
+        <v>4</v>
+      </c>
+      <c r="B2616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2617">
+        <v>10</v>
+      </c>
+      <c r="B2617">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2618">
+        <v>14</v>
+      </c>
+      <c r="B2618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2619">
+        <v>3</v>
+      </c>
+      <c r="B2619">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2620">
+        <v>12</v>
+      </c>
+      <c r="B2620">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2621">
+        <v>3</v>
+      </c>
+      <c r="B2621">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2622">
+        <v>6</v>
+      </c>
+      <c r="B2622">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2623">
+        <v>19</v>
+      </c>
+      <c r="B2623">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2624">
+        <v>4</v>
+      </c>
+      <c r="B2624">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2625">
+        <v>8</v>
+      </c>
+      <c r="B2625">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2626">
+        <v>8</v>
+      </c>
+      <c r="B2626">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2627">
+        <v>11</v>
+      </c>
+      <c r="B2627">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2628">
+        <v>10</v>
+      </c>
+      <c r="B2628">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2629">
+        <v>15</v>
+      </c>
+      <c r="B2629">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2630">
+        <v>12</v>
+      </c>
+      <c r="B2630">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2631">
+        <v>2</v>
+      </c>
+      <c r="B2631">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2632">
+        <v>1</v>
+      </c>
+      <c r="B2632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2633">
+        <v>7</v>
+      </c>
+      <c r="B2633">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2634">
+        <v>15</v>
+      </c>
+      <c r="B2634">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2635">
+        <v>14</v>
+      </c>
+      <c r="B2635">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2636">
+        <v>13</v>
+      </c>
+      <c r="B2636">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2637">
+        <v>19</v>
+      </c>
+      <c r="B2637">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2638">
+        <v>3</v>
+      </c>
+      <c r="B2638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2639">
+        <v>10</v>
+      </c>
+      <c r="B2639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2640">
+        <v>2</v>
+      </c>
+      <c r="B2640">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2641">
+        <v>1</v>
+      </c>
+      <c r="B2641">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2642">
+        <v>12</v>
+      </c>
+      <c r="B2642">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2643">
+        <v>15</v>
+      </c>
+      <c r="B2643">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2644">
+        <v>13</v>
+      </c>
+      <c r="B2644">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2645">
+        <v>8</v>
+      </c>
+      <c r="B2645">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2646">
+        <v>11</v>
+      </c>
+      <c r="B2646">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2647">
+        <v>3</v>
+      </c>
+      <c r="B2647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2648">
+        <v>18</v>
+      </c>
+      <c r="B2648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2649">
+        <v>13</v>
+      </c>
+      <c r="B2649">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2650">
+        <v>10</v>
+      </c>
+      <c r="B2650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2651">
+        <v>8</v>
+      </c>
+      <c r="B2651">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2652">
+        <v>11</v>
+      </c>
+      <c r="B2652">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2653">
+        <v>16</v>
+      </c>
+      <c r="B2653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2654">
+        <v>7</v>
+      </c>
+      <c r="B2654">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2655">
+        <v>3</v>
+      </c>
+      <c r="B2655">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2656">
+        <v>9</v>
+      </c>
+      <c r="B2656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2657">
+        <v>16</v>
+      </c>
+      <c r="B2657">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2658">
+        <v>2</v>
+      </c>
+      <c r="B2658">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2659">
+        <v>18</v>
+      </c>
+      <c r="B2659">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2660">
+        <v>4</v>
+      </c>
+      <c r="B2660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2661">
+        <v>8</v>
+      </c>
+      <c r="B2661">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2662">
+        <v>10</v>
+      </c>
+      <c r="B2662">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2663">
+        <v>19</v>
+      </c>
+      <c r="B2663">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2664">
+        <v>16</v>
+      </c>
+      <c r="B2664">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2665">
+        <v>11</v>
+      </c>
+      <c r="B2665">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2666">
+        <v>1</v>
+      </c>
+      <c r="B2666">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2667">
+        <v>14</v>
+      </c>
+      <c r="B2667">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2668">
+        <v>2</v>
+      </c>
+      <c r="B2668">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2669">
+        <v>4</v>
+      </c>
+      <c r="B2669">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2670">
+        <v>8</v>
+      </c>
+      <c r="B2670">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2671">
+        <v>3</v>
+      </c>
+      <c r="B2671">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2672">
+        <v>8</v>
+      </c>
+      <c r="B2672">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2673">
+        <v>2</v>
+      </c>
+      <c r="B2673">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2674">
+        <v>6</v>
+      </c>
+      <c r="B2674">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2675">
+        <v>3</v>
+      </c>
+      <c r="B2675">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2676">
+        <v>17</v>
+      </c>
+      <c r="B2676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2677">
+        <v>7</v>
+      </c>
+      <c r="B2677">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2678">
+        <v>15</v>
+      </c>
+      <c r="B2678">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2679">
+        <v>13</v>
+      </c>
+      <c r="B2679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2680">
+        <v>11</v>
+      </c>
+      <c r="B2680">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2681">
+        <v>16</v>
+      </c>
+      <c r="B2681">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2682">
+        <v>1</v>
+      </c>
+      <c r="B2682">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2683">
+        <v>13</v>
+      </c>
+      <c r="B2683">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2684">
+        <v>9</v>
+      </c>
+      <c r="B2684">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2685">
+        <v>18</v>
+      </c>
+      <c r="B2685">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2686">
+        <v>13</v>
+      </c>
+      <c r="B2686">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2687">
+        <v>15</v>
+      </c>
+      <c r="B2687">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2688">
+        <v>3</v>
+      </c>
+      <c r="B2688">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2689">
+        <v>1</v>
+      </c>
+      <c r="B2689">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2690">
+        <v>15</v>
+      </c>
+      <c r="B2690">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2691">
+        <v>18</v>
+      </c>
+      <c r="B2691">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2692">
+        <v>13</v>
+      </c>
+      <c r="B2692">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2693">
+        <v>2</v>
+      </c>
+      <c r="B2693">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2694">
+        <v>14</v>
+      </c>
+      <c r="B2694">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2695">
+        <v>6</v>
+      </c>
+      <c r="B2695">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2696">
+        <v>14</v>
+      </c>
+      <c r="B2696">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2697">
+        <v>8</v>
+      </c>
+      <c r="B2697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2698">
+        <v>17</v>
+      </c>
+      <c r="B2698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2699">
+        <v>10</v>
+      </c>
+      <c r="B2699">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2700">
+        <v>9</v>
+      </c>
+      <c r="B2700">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2701">
+        <v>12</v>
+      </c>
+      <c r="B2701">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2702">
+        <v>3</v>
+      </c>
+      <c r="B2702">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2703">
+        <v>9</v>
+      </c>
+      <c r="B2703">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2704">
+        <v>17</v>
+      </c>
+      <c r="B2704">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
